--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_92.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_92.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Holiday Inn Express Harvey Marrero</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Harvey</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>96</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>49075</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70058</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70058</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_92.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_92.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="832">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,2398 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r602104949-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40209</t>
+  </si>
+  <si>
+    <t>275216</t>
+  </si>
+  <si>
+    <t>602104949</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Outstanding Staff, Great Location and free parking</t>
+  </si>
+  <si>
+    <t>I was visiting New Orleans and was trying to find a room downtown. However, everything was either booked or too expensive because quite a few conventions were in town. Therefore I decided to venture out for my first time. In past visits I never stayed outside of the downtown/French Quarters area. In my search I found this gem.  I had a rental car so that made it convenient. This hotel is just a short drive to downtown. I arrived late in the evening and was greeted by an exceptional staff. The gentleman that checked me in (I believe his name was Darron or something like that) was very polite and swift. All of the front desk staff was pleasant and helpful. I must mention Tyranisha. She was great at checkout. Everyone I came in contact with was very pleasant and went out of their way to assist me.  Parking was free so that was great perk and saved me a great deal on this trip. Hotels downtown charge an average of $40 to $50 to park. I didn't eat breakfast there because Waffle House was right next door. However, I did get a drink of juice and noticed the breakfast looked pretty good. I just had a taste for Waffle House since it was very close. Not to mention the many other eateries in walking or short drive distance surrounding the hotel.  The rooms were very clean, comfortable and spacious...I was visiting New Orleans and was trying to find a room downtown. However, everything was either booked or too expensive because quite a few conventions were in town. Therefore I decided to venture out for my first time. In past visits I never stayed outside of the downtown/French Quarters area. In my search I found this gem.  I had a rental car so that made it convenient. This hotel is just a short drive to downtown. I arrived late in the evening and was greeted by an exceptional staff. The gentleman that checked me in (I believe his name was Darron or something like that) was very polite and swift. All of the front desk staff was pleasant and helpful. I must mention Tyranisha. She was great at checkout. Everyone I came in contact with was very pleasant and went out of their way to assist me.  Parking was free so that was great perk and saved me a great deal on this trip. Hotels downtown charge an average of $40 to $50 to park. I didn't eat breakfast there because Waffle House was right next door. However, I did get a drink of juice and noticed the breakfast looked pretty good. I just had a taste for Waffle House since it was very close. Not to mention the many other eateries in walking or short drive distance surrounding the hotel.  The rooms were very clean, comfortable and spacious with the exception of a mild musty odor which I believe stemmed from the humidity and the carpet. But for that reason I would have given this hotel a 5 excellent.  I used the laundry facilities which was very clean. Another great perk was the free laundry detergent I received. I was under the impression that I had to pay for it but the front desk staff said it was complimentary and provided enough to wash my clothes.  This is a great hotel, with great staff. I will certainly be staying here on my next visit to New Orleans.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I was visiting New Orleans and was trying to find a room downtown. However, everything was either booked or too expensive because quite a few conventions were in town. Therefore I decided to venture out for my first time. In past visits I never stayed outside of the downtown/French Quarters area. In my search I found this gem.  I had a rental car so that made it convenient. This hotel is just a short drive to downtown. I arrived late in the evening and was greeted by an exceptional staff. The gentleman that checked me in (I believe his name was Darron or something like that) was very polite and swift. All of the front desk staff was pleasant and helpful. I must mention Tyranisha. She was great at checkout. Everyone I came in contact with was very pleasant and went out of their way to assist me.  Parking was free so that was great perk and saved me a great deal on this trip. Hotels downtown charge an average of $40 to $50 to park. I didn't eat breakfast there because Waffle House was right next door. However, I did get a drink of juice and noticed the breakfast looked pretty good. I just had a taste for Waffle House since it was very close. Not to mention the many other eateries in walking or short drive distance surrounding the hotel.  The rooms were very clean, comfortable and spacious...I was visiting New Orleans and was trying to find a room downtown. However, everything was either booked or too expensive because quite a few conventions were in town. Therefore I decided to venture out for my first time. In past visits I never stayed outside of the downtown/French Quarters area. In my search I found this gem.  I had a rental car so that made it convenient. This hotel is just a short drive to downtown. I arrived late in the evening and was greeted by an exceptional staff. The gentleman that checked me in (I believe his name was Darron or something like that) was very polite and swift. All of the front desk staff was pleasant and helpful. I must mention Tyranisha. She was great at checkout. Everyone I came in contact with was very pleasant and went out of their way to assist me.  Parking was free so that was great perk and saved me a great deal on this trip. Hotels downtown charge an average of $40 to $50 to park. I didn't eat breakfast there because Waffle House was right next door. However, I did get a drink of juice and noticed the breakfast looked pretty good. I just had a taste for Waffle House since it was very close. Not to mention the many other eateries in walking or short drive distance surrounding the hotel.  The rooms were very clean, comfortable and spacious with the exception of a mild musty odor which I believe stemmed from the humidity and the carpet. But for that reason I would have given this hotel a 5 excellent.  I used the laundry facilities which was very clean. Another great perk was the free laundry detergent I received. I was under the impression that I had to pay for it but the front desk staff said it was complimentary and provided enough to wash my clothes.  This is a great hotel, with great staff. I will certainly be staying here on my next visit to New Orleans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r600791729-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>600791729</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>You could spend more, but why would you!</t>
+  </si>
+  <si>
+    <t>As an experienced traveler I guess it's safe to say I've stayed in a lot of Hotels, so I think my expectations of any property are simple yet finely honed, and reflect what I've learned is important in finding a "place to lay my head" at the end of a business or vacation day.
+What I found so wonderful and refreshing about the Holiday Inn Express Harvey-Marrero is the people.  These days one property is really much like all the others, and I think reviews like this are partly responsible.  Each traveler has the ability to listen to others and get a feel for a place without going first.  At the Holiday Inn Express Harvey-Marrero, there is something almost magical going on.  And that is no exaggeration.  The staff treat you like family...no joke.  Lot's of places say they do, lots of places pretend they do, so few actually pull it off.
+When I arrived with my family we checked in within minutes, and were headed up to our room.  When we got to our room it had a very moldy smell (probably not uncommon in New Orleans), so I made a trip back to the front desk and let them know, and a member of their team found and escorted us to a new room and made sure it met our approval.  (really nice touch that made me feel like my business was important to them)
+Our room was...As an experienced traveler I guess it's safe to say I've stayed in a lot of Hotels, so I think my expectations of any property are simple yet finely honed, and reflect what I've learned is important in finding a "place to lay my head" at the end of a business or vacation day.What I found so wonderful and refreshing about the Holiday Inn Express Harvey-Marrero is the people.  These days one property is really much like all the others, and I think reviews like this are partly responsible.  Each traveler has the ability to listen to others and get a feel for a place without going first.  At the Holiday Inn Express Harvey-Marrero, there is something almost magical going on.  And that is no exaggeration.  The staff treat you like family...no joke.  Lot's of places say they do, lots of places pretend they do, so few actually pull it off.When I arrived with my family we checked in within minutes, and were headed up to our room.  When we got to our room it had a very moldy smell (probably not uncommon in New Orleans), so I made a trip back to the front desk and let them know, and a member of their team found and escorted us to a new room and made sure it met our approval.  (really nice touch that made me feel like my business was important to them)Our room was in great shape.  Clean and well appointed, always good to find, so nothing to really comment on here.My family and I mostly used Lyft in NOLA, and we were in and out several times a day.  Each time we left, and each time we returned hotel staff made it a point to check in with us to make sure we were good.  It seems that they make it a point to just make sure your're doing well...(who does that these days?), absolutely wonderful....that's what it is.  They took time to listen to our questions (many) about where to shop, and where to eat, and all the staff took the time to guide us on the finer points of their city...again...wonderful.The property manager and her husband made it a point to introduce themselves to us and remind us to let them know if we needed anything (and trust me, I'm no one special...just a fellow traveler).  I feel like meeting the property manager was just icing on the cake.  It made me feel like I mattered...wonderful again.My stay was so nice that I actually didn't want to leave.  For me, that's kind of mind blowing considering all the places I've been.  NOLA itself was a good trip with family, not my best nor my worst vacation.  But my experience at Holiday Inn Express Harvey - Marrero was something I rarely get regardless of the price point.  By all means stay at this property.  There are other Hotels that will cost you significantly more money...but what do you get for it?  This hotel is minutes away from the French Quarter and other attractions (it's on the Westbank), and they treat you like they care about you.  What more could you want really?If you're with the hotel staff and read this...thank you...miss you...and I'll be back soon.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Jolynn B, General Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded August 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2018</t>
+  </si>
+  <si>
+    <t>As an experienced traveler I guess it's safe to say I've stayed in a lot of Hotels, so I think my expectations of any property are simple yet finely honed, and reflect what I've learned is important in finding a "place to lay my head" at the end of a business or vacation day.
+What I found so wonderful and refreshing about the Holiday Inn Express Harvey-Marrero is the people.  These days one property is really much like all the others, and I think reviews like this are partly responsible.  Each traveler has the ability to listen to others and get a feel for a place without going first.  At the Holiday Inn Express Harvey-Marrero, there is something almost magical going on.  And that is no exaggeration.  The staff treat you like family...no joke.  Lot's of places say they do, lots of places pretend they do, so few actually pull it off.
+When I arrived with my family we checked in within minutes, and were headed up to our room.  When we got to our room it had a very moldy smell (probably not uncommon in New Orleans), so I made a trip back to the front desk and let them know, and a member of their team found and escorted us to a new room and made sure it met our approval.  (really nice touch that made me feel like my business was important to them)
+Our room was...As an experienced traveler I guess it's safe to say I've stayed in a lot of Hotels, so I think my expectations of any property are simple yet finely honed, and reflect what I've learned is important in finding a "place to lay my head" at the end of a business or vacation day.What I found so wonderful and refreshing about the Holiday Inn Express Harvey-Marrero is the people.  These days one property is really much like all the others, and I think reviews like this are partly responsible.  Each traveler has the ability to listen to others and get a feel for a place without going first.  At the Holiday Inn Express Harvey-Marrero, there is something almost magical going on.  And that is no exaggeration.  The staff treat you like family...no joke.  Lot's of places say they do, lots of places pretend they do, so few actually pull it off.When I arrived with my family we checked in within minutes, and were headed up to our room.  When we got to our room it had a very moldy smell (probably not uncommon in New Orleans), so I made a trip back to the front desk and let them know, and a member of their team found and escorted us to a new room and made sure it met our approval.  (really nice touch that made me feel like my business was important to them)Our room was in great shape.  Clean and well appointed, always good to find, so nothing to really comment on here.My family and I mostly used Lyft in NOLA, and we were in and out several times a day.  Each time we left, and each time we returned hotel staff made it a point to check in with us to make sure we were good.  It seems that they make it a point to just make sure your're doing well...(who does that these days?), absolutely wonderful....that's what it is.  They took time to listen to our questions (many) about where to shop, and where to eat, and all the staff took the time to guide us on the finer points of their city...again...wonderful.The property manager and her husband made it a point to introduce themselves to us and remind us to let them know if we needed anything (and trust me, I'm no one special...just a fellow traveler).  I feel like meeting the property manager was just icing on the cake.  It made me feel like I mattered...wonderful again.My stay was so nice that I actually didn't want to leave.  For me, that's kind of mind blowing considering all the places I've been.  NOLA itself was a good trip with family, not my best nor my worst vacation.  But my experience at Holiday Inn Express Harvey - Marrero was something I rarely get regardless of the price point.  By all means stay at this property.  There are other Hotels that will cost you significantly more money...but what do you get for it?  This hotel is minutes away from the French Quarter and other attractions (it's on the Westbank), and they treat you like they care about you.  What more could you want really?If you're with the hotel staff and read this...thank you...miss you...and I'll be back soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r601184672-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>601184672</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>My family stayed here for one night this past weekend. We had booked a charter fishing trip and needed a place to stay for the night. The hotel and room was very clean. The kids enjoyed the pool. We left very early so we didn’t get to enjoy breakfast but the kids did enjoy the afternoon popcorn!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r594603823-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>594603823</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Visited for 4 days and it was hot.</t>
+  </si>
+  <si>
+    <t>The hotel was nice and the room was comfortable. It was very hot and we were visiting New Orleans each day. We could not use the pool as it was green and cloudy. I heard a couple of men talking that there was a leak so they had to fill the pool every couple days which was causing the balance for the chemicals to be off. The staff was very friendly and the breakfast was good.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r580877465-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>580877465</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Average Hotel</t>
+  </si>
+  <si>
+    <t>The front desk staff is extremely friendly and helpful.  I had a room on the third floor facing the parking lot and overlooking the pool.  It was quiet but have no idea what is like when the pool is in use.  The hotel is tucked away and the entrance can be easily missed.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Jolynn B, General Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded June 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2018</t>
+  </si>
+  <si>
+    <t>The front desk staff is extremely friendly and helpful.  I had a room on the third floor facing the parking lot and overlooking the pool.  It was quiet but have no idea what is like when the pool is in use.  The hotel is tucked away and the entrance can be easily missed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r577939735-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>577939735</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Weekend</t>
+  </si>
+  <si>
+    <t>We were in the area for the Zurich Golf Classic. This was out first stay at this hotel and we plan to stay again next year. Very clean and super nice staff. The breakfast in the morning was prefect and there is also popcorn in the evenings. Room was clean and hotel was quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in the area for the Zurich Golf Classic. This was out first stay at this hotel and we plan to stay again next year. Very clean and super nice staff. The breakfast in the morning was prefect and there is also popcorn in the evenings. Room was clean and hotel was quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r569911999-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>569911999</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Really really nice</t>
+  </si>
+  <si>
+    <t>I had to come to this area on a business trip and brought my wife along. She stayed behind at the room while I worked. The room was absolutely perfect for her to just relax in while I was gone. The property was wonderful and close to just about everything. Many nearby restaurants nearby and just minutes from the French quarter. Staff was awesome. Being someone who travels more than half a year I whole heartedly recommends this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>I had to come to this area on a business trip and brought my wife along. She stayed behind at the room while I worked. The room was absolutely perfect for her to just relax in while I was gone. The property was wonderful and close to just about everything. Many nearby restaurants nearby and just minutes from the French quarter. Staff was awesome. Being someone who travels more than half a year I whole heartedly recommends this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r532599249-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>532599249</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I thoroughly enjoyed my 2 night stay here in Harvey, LA at this Holiday Inn Express. The staff was wonderful and kept us well informed. My stay was cut short by one night because of Hurricane Nate but I did get to enjoy the city of New Orleans before I left. New Orleans is about 15-20 minutes away depending on traffic from this hotel.The hotel offered a phenomenal breakfast each morning and my family and I enjoyed a great nights sleep each day. The hotel kept us very informed about there procedures for the Hurricane and that allowed me to protect my family and plan to keep them safe. I was impressed with their response. Hotel offered an outdoor pool that was well maintained and clean. We didn't get to use it because we were mostly in New Orleans but it was a nice sight to see. Hotel staff was great as well and provided amenities that I had left like toothpaste, razors, and even let me use a lint roller.I highly recommend this hotel to anyone who wants an inexpensive hotel yet wants to be close to New Orleans.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Jolynn B, Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded October 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2017</t>
+  </si>
+  <si>
+    <t>I thoroughly enjoyed my 2 night stay here in Harvey, LA at this Holiday Inn Express. The staff was wonderful and kept us well informed. My stay was cut short by one night because of Hurricane Nate but I did get to enjoy the city of New Orleans before I left. New Orleans is about 15-20 minutes away depending on traffic from this hotel.The hotel offered a phenomenal breakfast each morning and my family and I enjoyed a great nights sleep each day. The hotel kept us very informed about there procedures for the Hurricane and that allowed me to protect my family and plan to keep them safe. I was impressed with their response. Hotel offered an outdoor pool that was well maintained and clean. We didn't get to use it because we were mostly in New Orleans but it was a nice sight to see. Hotel staff was great as well and provided amenities that I had left like toothpaste, razors, and even let me use a lint roller.I highly recommend this hotel to anyone who wants an inexpensive hotel yet wants to be close to New Orleans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r521721841-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>521721841</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Weekend get away!!!!</t>
+  </si>
+  <si>
+    <t>Last minute weekend away to attend a football game at the dome.  The hotel was very clean and the staff were very friendly.  Rooms were very comfortable and clean.  Didn't get a chance to try there breakfast but looked delicious.  Definitely will stay at this location next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Jolynn B, Front Office Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded September 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2017</t>
+  </si>
+  <si>
+    <t>Last minute weekend away to attend a football game at the dome.  The hotel was very clean and the staff were very friendly.  Rooms were very comfortable and clean.  Didn't get a chance to try there breakfast but looked delicious.  Definitely will stay at this location next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r518583787-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>518583787</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Love the service!</t>
+  </si>
+  <si>
+    <t>As always, the hotel is clean and the staff is friendly.  The breakfast is good and the food is replenished quickly.The hotel is under renovations but you only know because of the signs.  If you are coming to Harvey and need a hotel, this is my favorite out of the ones I have tried in Harvey. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Office Manager  at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>As always, the hotel is clean and the staff is friendly.  The breakfast is good and the food is replenished quickly.The hotel is under renovations but you only know because of the signs.  If you are coming to Harvey and need a hotel, this is my favorite out of the ones I have tried in Harvey. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r495214740-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>495214740</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Pre-Cruise Stay</t>
+  </si>
+  <si>
+    <t>When cruising out of NO this will be our stay from now on. The hotel staff was very friendly. The room was clean and perfect for our needs. We enjoyed the nice continental breakfast as well. It was only about a 15min drive to downtown/French Quarter area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Jolynn B, Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>When cruising out of NO this will be our stay from now on. The hotel staff was very friendly. The room was clean and perfect for our needs. We enjoyed the nice continental breakfast as well. It was only about a 15min drive to downtown/French Quarter area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r482712332-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>482712332</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Great stay! Excellent hotel!</t>
+  </si>
+  <si>
+    <t>We loved this hotel!  To put it simply, it was one of the cleanest hotels we’ve experienced yet!  The room was perfect, roomy, comfy, fresh.  The bathroom was spotless!  We had plenty of everything that we needed, and the shower was fantastic!  Large shower head with great pressure, clean fluffy towels, and easy to find the perfect water temperature.  The bed was SOOOO comfortable that we nearly fell asleep as soon as we climbed into the bed linens.  And can we just ask WHERE does the Holiday Inn Express get its pillows???  They are Wonderful!!  (I’m hunting that down this week)  Housekeeping is often a difficult and thankless job that most folks forget about… this team obviously takes pride in caring for the rooms and for the guest!  GREAT breakfast the next morning!  Clean, stocked, and lots of great options to choose from, and all included!  The coffee is delish, and the food is fresh and wonderful.  The personnel at the desk the night before had a busy lobby… as it was a Friday night, it seemed the action never stopped, however, both of the staff people manning the front desk and phones were FANTASTIC!  Super attitudes, super energy, and what smiles!  Even with a somewhat difficult gentleman checking in, they handled it professionally and positively, with a sincerity that really said, “we want to help you.”  The next morning, as we checked out, the lovely person at the front...We loved this hotel!  To put it simply, it was one of the cleanest hotels we’ve experienced yet!  The room was perfect, roomy, comfy, fresh.  The bathroom was spotless!  We had plenty of everything that we needed, and the shower was fantastic!  Large shower head with great pressure, clean fluffy towels, and easy to find the perfect water temperature.  The bed was SOOOO comfortable that we nearly fell asleep as soon as we climbed into the bed linens.  And can we just ask WHERE does the Holiday Inn Express get its pillows???  They are Wonderful!!  (I’m hunting that down this week)  Housekeeping is often a difficult and thankless job that most folks forget about… this team obviously takes pride in caring for the rooms and for the guest!  GREAT breakfast the next morning!  Clean, stocked, and lots of great options to choose from, and all included!  The coffee is delish, and the food is fresh and wonderful.  The personnel at the desk the night before had a busy lobby… as it was a Friday night, it seemed the action never stopped, however, both of the staff people manning the front desk and phones were FANTASTIC!  Super attitudes, super energy, and what smiles!  Even with a somewhat difficult gentleman checking in, they handled it professionally and positively, with a sincerity that really said, “we want to help you.”  The next morning, as we checked out, the lovely person at the front desk didn’t just ask us if our stay was alright… she connected with us, engaged us, made REAL eye contact and asked how everything was in a way that really showed it mattered to her! And THAT makes all the difference!  Thank you Holiday Inn Express staff in Harvey!  You rocked it!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Office Manager  at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2017</t>
+  </si>
+  <si>
+    <t>We loved this hotel!  To put it simply, it was one of the cleanest hotels we’ve experienced yet!  The room was perfect, roomy, comfy, fresh.  The bathroom was spotless!  We had plenty of everything that we needed, and the shower was fantastic!  Large shower head with great pressure, clean fluffy towels, and easy to find the perfect water temperature.  The bed was SOOOO comfortable that we nearly fell asleep as soon as we climbed into the bed linens.  And can we just ask WHERE does the Holiday Inn Express get its pillows???  They are Wonderful!!  (I’m hunting that down this week)  Housekeeping is often a difficult and thankless job that most folks forget about… this team obviously takes pride in caring for the rooms and for the guest!  GREAT breakfast the next morning!  Clean, stocked, and lots of great options to choose from, and all included!  The coffee is delish, and the food is fresh and wonderful.  The personnel at the desk the night before had a busy lobby… as it was a Friday night, it seemed the action never stopped, however, both of the staff people manning the front desk and phones were FANTASTIC!  Super attitudes, super energy, and what smiles!  Even with a somewhat difficult gentleman checking in, they handled it professionally and positively, with a sincerity that really said, “we want to help you.”  The next morning, as we checked out, the lovely person at the front...We loved this hotel!  To put it simply, it was one of the cleanest hotels we’ve experienced yet!  The room was perfect, roomy, comfy, fresh.  The bathroom was spotless!  We had plenty of everything that we needed, and the shower was fantastic!  Large shower head with great pressure, clean fluffy towels, and easy to find the perfect water temperature.  The bed was SOOOO comfortable that we nearly fell asleep as soon as we climbed into the bed linens.  And can we just ask WHERE does the Holiday Inn Express get its pillows???  They are Wonderful!!  (I’m hunting that down this week)  Housekeeping is often a difficult and thankless job that most folks forget about… this team obviously takes pride in caring for the rooms and for the guest!  GREAT breakfast the next morning!  Clean, stocked, and lots of great options to choose from, and all included!  The coffee is delish, and the food is fresh and wonderful.  The personnel at the desk the night before had a busy lobby… as it was a Friday night, it seemed the action never stopped, however, both of the staff people manning the front desk and phones were FANTASTIC!  Super attitudes, super energy, and what smiles!  Even with a somewhat difficult gentleman checking in, they handled it professionally and positively, with a sincerity that really said, “we want to help you.”  The next morning, as we checked out, the lovely person at the front desk didn’t just ask us if our stay was alright… she connected with us, engaged us, made REAL eye contact and asked how everything was in a way that really showed it mattered to her! And THAT makes all the difference!  Thank you Holiday Inn Express staff in Harvey!  You rocked it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r478550440-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>478550440</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place for a night. </t>
+  </si>
+  <si>
+    <t>Would have given this hotel 4 stars if the refrigerator would have been working properly. Other than that the rooms were clean, the beds were comfortable, the staff was nice, and the breakfast was fairly good. I would definitely recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Front Office Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Would have given this hotel 4 stars if the refrigerator would have been working properly. Other than that the rooms were clean, the beds were comfortable, the staff was nice, and the breakfast was fairly good. I would definitely recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r470267590-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>470267590</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre cruise stay </t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express is pretty much what you would expect: free breakfast that's decent, a clean comfortable room. What makes it special is the front desk: very helpful, very friendly. They seemed to understand  hospitality. It is about 6 miles to downtown and the French Quarter.  But that is only about a 20 minute drive. They also kept our car for the week while on the cruise, that is a big bonus!! When coming to NO LA next time we will keep this location in mind.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Office Manager  at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2017</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express is pretty much what you would expect: free breakfast that's decent, a clean comfortable room. What makes it special is the front desk: very helpful, very friendly. They seemed to understand  hospitality. It is about 6 miles to downtown and the French Quarter.  But that is only about a 20 minute drive. They also kept our car for the week while on the cruise, that is a big bonus!! When coming to NO LA next time we will keep this location in mind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r468529958-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>468529958</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Great choice for spring break stay</t>
+  </si>
+  <si>
+    <t>I looked at a lot of hotels before choosing this one for our spring break vacation.  Hotels in the French Quarter were expensive or fully booked and parking was expensive.  We stayed here and took the Algiers Point ferry across the river.  The room was great - very comfortable,  The breakfast was great.  There were lots of good places to eat withing walking distance.  We were glad we choice this hotel for our New Orleans base.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, General Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>I looked at a lot of hotels before choosing this one for our spring break vacation.  Hotels in the French Quarter were expensive or fully booked and parking was expensive.  We stayed here and took the Algiers Point ferry across the river.  The room was great - very comfortable,  The breakfast was great.  There were lots of good places to eat withing walking distance.  We were glad we choice this hotel for our New Orleans base.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r468170410-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>468170410</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>A solid place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here for a night in one of their suites. The staff were very friendly at check-in, and everything was pretty much what I have come to expect from a Holiday Inn Express. The rate was higher than I am used to paying, but it seemed like everything in New Orleans was expensive at the time. I was able to get an Uber into the city, and the price on that was very reasonable.The room was in good shape, and there were a few restaurants nearby that were within easy walking distance (as well as a drugstore). If the circumstances arose again, I wouldn't hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a night in one of their suites. The staff were very friendly at check-in, and everything was pretty much what I have come to expect from a Holiday Inn Express. The rate was higher than I am used to paying, but it seemed like everything in New Orleans was expensive at the time. I was able to get an Uber into the city, and the price on that was very reasonable.The room was in good shape, and there were a few restaurants nearby that were within easy walking distance (as well as a drugstore). If the circumstances arose again, I wouldn't hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r454122221-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>454122221</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>Great location to Chill</t>
+  </si>
+  <si>
+    <t>Last stop on the road trip from St Louis to our cruise ship in NOLA. Nice room, clean comfortable bed and bathtub was clean. Yummy free breakfast and pool area. Close to lots of restaurants and drugstores are nearby, shopping all within walking distance. I would definitely stay here again. The entrance is a little tricky if you are coming from the wrong direction. No worries, it's all good...we made it!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Front Office Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Last stop on the road trip from St Louis to our cruise ship in NOLA. Nice room, clean comfortable bed and bathtub was clean. Yummy free breakfast and pool area. Close to lots of restaurants and drugstores are nearby, shopping all within walking distance. I would definitely stay here again. The entrance is a little tricky if you are coming from the wrong direction. No worries, it's all good...we made it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r447288277-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>447288277</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Best Value on the West Bank</t>
+  </si>
+  <si>
+    <t>There aren't too many choices for good hotels on the West Bank where one can combine easy access, security and nearby places to eat.This one has them all and the price is so much less than across the river.Had a reservation at another favorite hotel chain a mile or so away but upon driving onto the lot, I decided I'd rather stay someplace else with more nearby amenities and a more secure setting.The staff was very accommodating and I was glad to get a room without an advance registration.Will definitely stay here if in the area overnight again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Office Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded December 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2016</t>
+  </si>
+  <si>
+    <t>There aren't too many choices for good hotels on the West Bank where one can combine easy access, security and nearby places to eat.This one has them all and the price is so much less than across the river.Had a reservation at another favorite hotel chain a mile or so away but upon driving onto the lot, I decided I'd rather stay someplace else with more nearby amenities and a more secure setting.The staff was very accommodating and I was glad to get a room without an advance registration.Will definitely stay here if in the area overnight again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r424233372-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>424233372</t>
+  </si>
+  <si>
+    <t>10/01/2016</t>
+  </si>
+  <si>
+    <t>Wonderful all around motel close to New Orleans sites and Northshore areas</t>
+  </si>
+  <si>
+    <t>The congenial staff were totally people oriented and intent on making travelers' visits pleasant and comfortable.  Everything was great, from check in to check out, with a comfortable, clean room, numerous continental breakfast choices of both hot and cold foods and fruit, a well equipped exercise room, a  nice computer room, a great room that acommodated our friends nicely, and very appreciated amenities of an iron and ironing board as well as a choice of using a washer and dryer.  Nearby, within walking distance were several excellent restaurants including Copeland's, Panera's, and New Orleans Burgers and Seafood.  The area appeared nice, clean, and safe.  We plan to stay there again on future trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Front Office Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded October 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2016</t>
+  </si>
+  <si>
+    <t>The congenial staff were totally people oriented and intent on making travelers' visits pleasant and comfortable.  Everything was great, from check in to check out, with a comfortable, clean room, numerous continental breakfast choices of both hot and cold foods and fruit, a well equipped exercise room, a  nice computer room, a great room that acommodated our friends nicely, and very appreciated amenities of an iron and ironing board as well as a choice of using a washer and dryer.  Nearby, within walking distance were several excellent restaurants including Copeland's, Panera's, and New Orleans Burgers and Seafood.  The area appeared nice, clean, and safe.  We plan to stay there again on future trips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r420986245-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>420986245</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfectly average </t>
+  </si>
+  <si>
+    <t>The staff at the hotel we're perfectly pleasant and helpful. My room was clean and contained everything a room should. Not one of my usual hotels for travel, but booked there to participate with large extended family group to attend a nearby event.  Definitely appreciate  the manager who allowed me to book at a discounted rate even though I had missed the cutoff date.  This hotel is  perfectly fine for an average weekend stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, General Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>The staff at the hotel we're perfectly pleasant and helpful. My room was clean and contained everything a room should. Not one of my usual hotels for travel, but booked there to participate with large extended family group to attend a nearby event.  Definitely appreciate  the manager who allowed me to book at a discounted rate even though I had missed the cutoff date.  This hotel is  perfectly fine for an average weekend stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r420447605-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>420447605</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Good value, consistent experience</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel many times over the past several years on business trips. The staff is always friendly. The breakfast is always ready. The rooms are always neat and clean. The bathrooms have a nice large countertop to put stuff on. There is a full range of complementary toiletries available. There is a clip on the blackout curtains so that if they don't quite close for you, you can use the clip. Every room has a small microwave and a small refrigerator. The personal Keurig machine makes generating that first cup of coffee in the morning very simple.  One thing that has changed over the years is that the Wi-Fi has gotten faster and more reliable. There are a few restaurants and a Walgreen's within easy walking distance. One thing I like about this place is that it sets back from the nearby street by about half a block. Reduces traffic noise. Would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Front Office Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2016</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel many times over the past several years on business trips. The staff is always friendly. The breakfast is always ready. The rooms are always neat and clean. The bathrooms have a nice large countertop to put stuff on. There is a full range of complementary toiletries available. There is a clip on the blackout curtains so that if they don't quite close for you, you can use the clip. Every room has a small microwave and a small refrigerator. The personal Keurig machine makes generating that first cup of coffee in the morning very simple.  One thing that has changed over the years is that the Wi-Fi has gotten faster and more reliable. There are a few restaurants and a Walgreen's within easy walking distance. One thing I like about this place is that it sets back from the nearby street by about half a block. Reduces traffic noise. Would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r402383288-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>402383288</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>Some of the best hotel staff that I've seen</t>
+  </si>
+  <si>
+    <t>As a Front Desk Office manager at a Holiday Inn Express I'm very picky about the hotels that I stay at. This hotel was wonderful! Very clean. Breakfast was always fresh. The pool was on point and the fitness center was phenomenal. I may be slightly partial to my own staff but the staff here were all extremely helpful, friendly and accommodating.  I have a full service dog as well as a service dog in training and they all were super helpful and worked really hard to accommodate them which was amazing. My one dog fell in love with the maintenance man there, he was so sweet to her. The housekeepers were so sweetI'd like to give extra praise to Tyranisha and Donna who absolutely bent over backwards to help us out. They recommended some wonderful places to eat and some awesome tours that made our trip perfect! Jolynn you have amazing staff. I was beyond impressed with this hotel and I will definitely be returning in the future. I can not recommend this hotel enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, General Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded August 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2016</t>
+  </si>
+  <si>
+    <t>As a Front Desk Office manager at a Holiday Inn Express I'm very picky about the hotels that I stay at. This hotel was wonderful! Very clean. Breakfast was always fresh. The pool was on point and the fitness center was phenomenal. I may be slightly partial to my own staff but the staff here were all extremely helpful, friendly and accommodating.  I have a full service dog as well as a service dog in training and they all were super helpful and worked really hard to accommodate them which was amazing. My one dog fell in love with the maintenance man there, he was so sweet to her. The housekeepers were so sweetI'd like to give extra praise to Tyranisha and Donna who absolutely bent over backwards to help us out. They recommended some wonderful places to eat and some awesome tours that made our trip perfect! Jolynn you have amazing staff. I was beyond impressed with this hotel and I will definitely be returning in the future. I can not recommend this hotel enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r391392177-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>391392177</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Woudl definitely stay again</t>
+  </si>
+  <si>
+    <t>We came to New Orleans for our 8th wedding anniversary. We picked this hotel as an alternative to staying right in New Orleans. I wanted a place that would offer free breakfast, wifi and parking while still at a reasonable price. That is hard to find New Orleans. We got that and so much more. 
+The staff was wonderful. Everyone was very helpful and accommodating. When I told them it was my anniversary weekend. They upgraded us to a suite. We were able to get a later check out on the last day so we could use the gym and pool before we left. When I needed extra pillows or toiletries they were always there to help. 
+The room was modern, clean and extremely comfortable. There was also a mini fridge and microwave in the room. The hotel breakfast was well stocked with fresh items including hot items daily. They even give free popcorn in the afternoon.
+There is a modern full feature gym and a very nice pool area outside. We enjoyed the hotel so much that we ended up getting a late start everyday so we could hang out at the hotel and enjoy the room and amenities.
+The only drawback was the location is a bit outside of New Orleans. So you have about a 15-20 minute drive into the city. But actually that was OK, after a long day of sightseeing it was nice to go...We came to New Orleans for our 8th wedding anniversary. We picked this hotel as an alternative to staying right in New Orleans. I wanted a place that would offer free breakfast, wifi and parking while still at a reasonable price. That is hard to find New Orleans. We got that and so much more. The staff was wonderful. Everyone was very helpful and accommodating. When I told them it was my anniversary weekend. They upgraded us to a suite. We were able to get a later check out on the last day so we could use the gym and pool before we left. When I needed extra pillows or toiletries they were always there to help. The room was modern, clean and extremely comfortable. There was also a mini fridge and microwave in the room. The hotel breakfast was well stocked with fresh items including hot items daily. They even give free popcorn in the afternoon.There is a modern full feature gym and a very nice pool area outside. We enjoyed the hotel so much that we ended up getting a late start everyday so we could hang out at the hotel and enjoy the room and amenities.The only drawback was the location is a bit outside of New Orleans. So you have about a 15-20 minute drive into the city. But actually that was OK, after a long day of sightseeing it was nice to go back to the hotel where it was nice and peaceful and quiet. Overall an excellent experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, General Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>We came to New Orleans for our 8th wedding anniversary. We picked this hotel as an alternative to staying right in New Orleans. I wanted a place that would offer free breakfast, wifi and parking while still at a reasonable price. That is hard to find New Orleans. We got that and so much more. 
+The staff was wonderful. Everyone was very helpful and accommodating. When I told them it was my anniversary weekend. They upgraded us to a suite. We were able to get a later check out on the last day so we could use the gym and pool before we left. When I needed extra pillows or toiletries they were always there to help. 
+The room was modern, clean and extremely comfortable. There was also a mini fridge and microwave in the room. The hotel breakfast was well stocked with fresh items including hot items daily. They even give free popcorn in the afternoon.
+There is a modern full feature gym and a very nice pool area outside. We enjoyed the hotel so much that we ended up getting a late start everyday so we could hang out at the hotel and enjoy the room and amenities.
+The only drawback was the location is a bit outside of New Orleans. So you have about a 15-20 minute drive into the city. But actually that was OK, after a long day of sightseeing it was nice to go...We came to New Orleans for our 8th wedding anniversary. We picked this hotel as an alternative to staying right in New Orleans. I wanted a place that would offer free breakfast, wifi and parking while still at a reasonable price. That is hard to find New Orleans. We got that and so much more. The staff was wonderful. Everyone was very helpful and accommodating. When I told them it was my anniversary weekend. They upgraded us to a suite. We were able to get a later check out on the last day so we could use the gym and pool before we left. When I needed extra pillows or toiletries they were always there to help. The room was modern, clean and extremely comfortable. There was also a mini fridge and microwave in the room. The hotel breakfast was well stocked with fresh items including hot items daily. They even give free popcorn in the afternoon.There is a modern full feature gym and a very nice pool area outside. We enjoyed the hotel so much that we ended up getting a late start everyday so we could hang out at the hotel and enjoy the room and amenities.The only drawback was the location is a bit outside of New Orleans. So you have about a 15-20 minute drive into the city. But actually that was OK, after a long day of sightseeing it was nice to go back to the hotel where it was nice and peaceful and quiet. Overall an excellent experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r388775996-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>388775996</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Friendliest Hotel Staff!</t>
+  </si>
+  <si>
+    <t>I recently stayed here with a group of 30+ high school students and chaperones.  After traveling on a bus for 14 hours I was so pleased to find our rooms and room keys ready when we arrived.  The front desk staff was the friendliest I've encountered at a hotel.  They spoke to us every morning and evening to make sure we were pleased with the hotel and to find out how our day was in New Orleans.  The breakfast area was always clean and the food was well stocked each morning.  I also appreciated the overall variety of foods and the rotation of breakfast meats each morning.I would definitely stay here again if I'm ever in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I recently stayed here with a group of 30+ high school students and chaperones.  After traveling on a bus for 14 hours I was so pleased to find our rooms and room keys ready when we arrived.  The front desk staff was the friendliest I've encountered at a hotel.  They spoke to us every morning and evening to make sure we were pleased with the hotel and to find out how our day was in New Orleans.  The breakfast area was always clean and the food was well stocked each morning.  I also appreciated the overall variety of foods and the rotation of breakfast meats each morning.I would definitely stay here again if I'm ever in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r383178212-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>383178212</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>Great service at the front desk upon arrival. My platinum status was recognized and agent made me feel welcome. Rooms was spacious and clean.  Bed was really comfortable. Linnen either new or good quality.The hotel is more on the older side but well maintained.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r382349735-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>382349735</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Not great for the money!</t>
+  </si>
+  <si>
+    <t>I wasn't happy with the room once we arrived. Lots of rusty areas, bathroom door looked like a beaver chewed on it, shower had mold, air was noisy and didn't work well, room smelled and it just wasn't homey! I could have done better for my $145!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, General Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded June 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2016</t>
+  </si>
+  <si>
+    <t>I wasn't happy with the room once we arrived. Lots of rusty areas, bathroom door looked like a beaver chewed on it, shower had mold, air was noisy and didn't work well, room smelled and it just wasn't homey! I could have done better for my $145!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r378708267-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>378708267</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>My trip to visit my grandkids!</t>
+  </si>
+  <si>
+    <t>I spent a week there may 19th thru the 26th to visit my daughter who lives in Marrero. I wanted a nice hotel with 2 queen beds and a pool for the grandkids to come and stay with me and swim. The hotel was wonderful, the pool was excellent and the staff was beyond great!!!  The breakfast  was the best I've ever seen in a hotel and the little lady every morning that took care of it  was more than gracious!! And kudos to the staff Donna,Kyle, tyranisha,and especially Clarence who made me smile and even told my grandkids, grandma's got swag!!! Great, great place to stay and I'll be back!!! B Stevens.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Front Office Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2016</t>
+  </si>
+  <si>
+    <t>I spent a week there may 19th thru the 26th to visit my daughter who lives in Marrero. I wanted a nice hotel with 2 queen beds and a pool for the grandkids to come and stay with me and swim. The hotel was wonderful, the pool was excellent and the staff was beyond great!!!  The breakfast  was the best I've ever seen in a hotel and the little lady every morning that took care of it  was more than gracious!! And kudos to the staff Donna,Kyle, tyranisha,and especially Clarence who made me smile and even told my grandkids, grandma's got swag!!! Great, great place to stay and I'll be back!!! B Stevens.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r369236951-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>369236951</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>A fine experience in the New Orleans area</t>
+  </si>
+  <si>
+    <t>I traveled with friends to JazzFest in New Orleans and stayed in this hotel outside the city to save money.   This is the second year that we have stayed at the Harvey Holiday Inn Express and we have been happy with just about every aspect of the place, other than the just average breakfast.  We went into the city for that.  We were able to sleep well at this place and appreciated the convenience of being close to the city without paying big city prices.  Upon leaving this year, I accidentally left a collection of valuable CDs in the room.  When I discovered them missing after leaving the area, I called back to the hotel and talked with Sherry (sp?) at the front desk.   She graciously went immediately to check our room, found the CDs, called me back and offered to mail them to my home.   And when I got home a few days later....there they were!   Such great service from this staff member will not be forgotten and we expect to stay at this hotel again next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Front Office Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded May 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2016</t>
+  </si>
+  <si>
+    <t>I traveled with friends to JazzFest in New Orleans and stayed in this hotel outside the city to save money.   This is the second year that we have stayed at the Harvey Holiday Inn Express and we have been happy with just about every aspect of the place, other than the just average breakfast.  We went into the city for that.  We were able to sleep well at this place and appreciated the convenience of being close to the city without paying big city prices.  Upon leaving this year, I accidentally left a collection of valuable CDs in the room.  When I discovered them missing after leaving the area, I called back to the hotel and talked with Sherry (sp?) at the front desk.   She graciously went immediately to check our room, found the CDs, called me back and offered to mail them to my home.   And when I got home a few days later....there they were!   Such great service from this staff member will not be forgotten and we expect to stay at this hotel again next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r366554663-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>366554663</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Average, and very awkward to get to....</t>
+  </si>
+  <si>
+    <t>The Staff was great and very helpful and professional. Housekeeping did a great job and rooms were well kept despite some of the issues. Overall I found the hotel to have a very damp and musty smell to it. More on the first floor hallway than in the rooms.  Smell seemed to dissipate as you went up.  Internet was slow and they told me that certain rooms were far away from the router.  Breakfast was great and much better than other Holiday Inns that I've stayed in. Staff was great and food was fresh and hot. Did not care for the fact that you have to pay to use the washer and drier. This is a basic amenity that should be included in the price of the stay. The Hotel is very awkward to get to with the one way streets.  Depending on the direction you have to make several "U-Turns" to enter and exit the hotel.  Can be a bear in peak traffic periods.    Overall the hotel was fine, but because of the location, I would choose another location in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, General Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2016</t>
+  </si>
+  <si>
+    <t>The Staff was great and very helpful and professional. Housekeeping did a great job and rooms were well kept despite some of the issues. Overall I found the hotel to have a very damp and musty smell to it. More on the first floor hallway than in the rooms.  Smell seemed to dissipate as you went up.  Internet was slow and they told me that certain rooms were far away from the router.  Breakfast was great and much better than other Holiday Inns that I've stayed in. Staff was great and food was fresh and hot. Did not care for the fact that you have to pay to use the washer and drier. This is a basic amenity that should be included in the price of the stay. The Hotel is very awkward to get to with the one way streets.  Depending on the direction you have to make several "U-Turns" to enter and exit the hotel.  Can be a bear in peak traffic periods.    Overall the hotel was fine, but because of the location, I would choose another location in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r365258989-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>365258989</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Very clean, very courteous staff. Also very helpful. Clarence was a huge help when trying to identify my issues with my credit card. I also had forgotten my safety glasses and Holiday Inn had it to me the next business day. Simply amazing.Thanks for a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean, very courteous staff. Also very helpful. Clarence was a huge help when trying to identify my issues with my credit card. I also had forgotten my safety glasses and Holiday Inn had it to me the next business day. Simply amazing.Thanks for a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r365249464-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>365249464</t>
+  </si>
+  <si>
+    <t>Great Hotel but not so great location</t>
+  </si>
+  <si>
+    <t>This hotel is awesome.  Very clean and friendly staff.  But the location is not the greatest.  Safe enough but DO NOT leave anything in your vehicle that has any value.  I left early on a Sat. morning and there was a soldier who got his lab top stolen out of his truck.  But I lived in Harvey, LA behind the Best Buy on Manhattan for 2 years about 3-4 years ago and never had any problems.  But again do not leave any valuables in your vehicle.  Good breakfast too.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is awesome.  Very clean and friendly staff.  But the location is not the greatest.  Safe enough but DO NOT leave anything in your vehicle that has any value.  I left early on a Sat. morning and there was a soldier who got his lab top stolen out of his truck.  But I lived in Harvey, LA behind the Best Buy on Manhattan for 2 years about 3-4 years ago and never had any problems.  But again do not leave any valuables in your vehicle.  Good breakfast too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r364731248-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>364731248</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean hotel ... Super friendly front desk staff. </t>
+  </si>
+  <si>
+    <t>We stayed here one night before a cruise. This hotel is everything you expect from a Holiday Inn Express. Clean, quite and super friendly staff. Great breakfast, nice swimming pool and well equipped gym. We would stay here again if in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, General Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here one night before a cruise. This hotel is everything you expect from a Holiday Inn Express. Clean, quite and super friendly staff. Great breakfast, nice swimming pool and well equipped gym. We would stay here again if in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r364264908-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>364264908</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Very welcoming staff</t>
+  </si>
+  <si>
+    <t>Clerence was a very polite welcoming receptionist. The hotel was well kept. And clean. I really enjoyed my stay. The rooms were up to date and modern. More than likely will return. Thanks holiday in express harvey!MoreShow less</t>
+  </si>
+  <si>
+    <t>Clerence was a very polite welcoming receptionist. The hotel was well kept. And clean. I really enjoyed my stay. The rooms were up to date and modern. More than likely will return. Thanks holiday in express harvey!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r364264745-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>364264745</t>
+  </si>
+  <si>
+    <t>Clean and very nice decor</t>
+  </si>
+  <si>
+    <t>The hotel looks pretty new. After a quick registration, I went up to my room and was pleasantly surprised to see how nicely decorated the room was. There was wooden furniture, a queen sized bed, and a single couch with an ottoman. The bathroom was lined with marble on the floor, counter top, and the shower area. It is my first time in Louisiana and I was staying for 5 days. I always ask for recommendations on where to eat. Clarence, who works at the front desk, was very helpful with that. He recommended 4 great places to eat and I tried them all. The location of the hotel is decent. I missed my turn to the hotel and had a little difficulty getting back to the hotel. If going to the French Quarter is your plan, the hotel is within a 25 minute drive. If I come back to visit New Orleans, this Holiday Inn would be my choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel looks pretty new. After a quick registration, I went up to my room and was pleasantly surprised to see how nicely decorated the room was. There was wooden furniture, a queen sized bed, and a single couch with an ottoman. The bathroom was lined with marble on the floor, counter top, and the shower area. It is my first time in Louisiana and I was staying for 5 days. I always ask for recommendations on where to eat. Clarence, who works at the front desk, was very helpful with that. He recommended 4 great places to eat and I tried them all. The location of the hotel is decent. I missed my turn to the hotel and had a little difficulty getting back to the hotel. If going to the French Quarter is your plan, the hotel is within a 25 minute drive. If I come back to visit New Orleans, this Holiday Inn would be my choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r350588004-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>350588004</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Best Stay on the Westbank</t>
+  </si>
+  <si>
+    <t>February 13, was a very busy weekend for hotels in New Orleans and all rooms were sold out or not worth spending the money; however I went to this hotel and the check in clerk was able to find a room for us and it was clean and nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Front Office Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded February 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2016</t>
+  </si>
+  <si>
+    <t>February 13, was a very busy weekend for hotels in New Orleans and all rooms were sold out or not worth spending the money; however I went to this hotel and the check in clerk was able to find a room for us and it was clean and nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r346162929-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>346162929</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay </t>
+  </si>
+  <si>
+    <t>Had family medical business.  This place is a wonderful place to stay. Kyle was the host on duty.  After i arrived, he did everything he could to make me comfortable after learning i had back surgery a few weeks prior.  He was an excellent host and i was so thankful that he was there.  The room was perfect and breakfast excellent.  This is one of the best i have stayed in. Easy to get to, and plenty of restaurants around. Thanks Kyle for making my stay great.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, General Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Had family medical business.  This place is a wonderful place to stay. Kyle was the host on duty.  After i arrived, he did everything he could to make me comfortable after learning i had back surgery a few weeks prior.  He was an excellent host and i was so thankful that he was there.  The room was perfect and breakfast excellent.  This is one of the best i have stayed in. Easy to get to, and plenty of restaurants around. Thanks Kyle for making my stay great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r339742696-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>339742696</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Sugar Bowl Championship Visit</t>
+  </si>
+  <si>
+    <t>The hotel was nestled away in Harvey, LA, which ended up being an excellent stay. The hotels in NOLA were either booked, or too expensive during our visit to the Sugar Bowl. The hotel was comfortable, clean, and the staff very friendly (as most people who are from Louisiana). The breakfast was not fancy, but it served its purpose. Also, the view does not overlook a lake, but hey, we were there only to rest. If you're ever visiting NOLA, can't find a hotel in the inner city, and need a place to stay, visit this hotel in Harvey...you won't be disappointed.  Thanks for making our stay a pleasant one.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>The hotel was nestled away in Harvey, LA, which ended up being an excellent stay. The hotels in NOLA were either booked, or too expensive during our visit to the Sugar Bowl. The hotel was comfortable, clean, and the staff very friendly (as most people who are from Louisiana). The breakfast was not fancy, but it served its purpose. Also, the view does not overlook a lake, but hey, we were there only to rest. If you're ever visiting NOLA, can't find a hotel in the inner city, and need a place to stay, visit this hotel in Harvey...you won't be disappointed.  Thanks for making our stay a pleasant one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r329066536-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>329066536</t>
+  </si>
+  <si>
+    <t>11/25/2015</t>
+  </si>
+  <si>
+    <t>Fantastic Staff and Comfortable just outside of New Orleans</t>
+  </si>
+  <si>
+    <t>We did a road trip from Chicago to New Orleans and back, staying mostly in Holiday Inns (11 of them). This was the best one in our trip. The hotel is new, nice bedrooms, typical holiday inn configuration, but in great shape.The staff was fantastic, I am sorry for forgetting the name in particular of the gentleman in the front desk which was incredibly kind. gave us advice on restaurants, on events, gave us laundry detergent (we had to wash some stuff in the hotel)... One night there was a loud party some place close, we called reception at 3AM to figure out the noise, and they went to the neighbors to ask to turn it down, and offered us another room in the other side of the hotel. Fantastic service!!!The hotel is 15-20 minutes from the French Quartier. We were happy to stay there and have a more comfortable and cheaper hotel just outside of it. Would happily return.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded November 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2015</t>
+  </si>
+  <si>
+    <t>We did a road trip from Chicago to New Orleans and back, staying mostly in Holiday Inns (11 of them). This was the best one in our trip. The hotel is new, nice bedrooms, typical holiday inn configuration, but in great shape.The staff was fantastic, I am sorry for forgetting the name in particular of the gentleman in the front desk which was incredibly kind. gave us advice on restaurants, on events, gave us laundry detergent (we had to wash some stuff in the hotel)... One night there was a loud party some place close, we called reception at 3AM to figure out the noise, and they went to the neighbors to ask to turn it down, and offered us another room in the other side of the hotel. Fantastic service!!!The hotel is 15-20 minutes from the French Quartier. We were happy to stay there and have a more comfortable and cheaper hotel just outside of it. Would happily return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r322727787-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>322727787</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>Comfortable!</t>
+  </si>
+  <si>
+    <t>Although the facade of the building was being redone and was a mess, the rest of the hotel was very nice. All the staff was polite and helpful. The room was nice, a very comfortable bed and a very cooling and quiet a/c. The breakfast was delicious and is complimentary. It has several places to eat and a pharmacy within walking distance.  It has a pool but it was closed for the season. It doesn't take long to drive to New Orleans or you could easily Uber and it's not too expensive. Parking at the hotel is free.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Although the facade of the building was being redone and was a mess, the rest of the hotel was very nice. All the staff was polite and helpful. The room was nice, a very comfortable bed and a very cooling and quiet a/c. The breakfast was delicious and is complimentary. It has several places to eat and a pharmacy within walking distance.  It has a pool but it was closed for the season. It doesn't take long to drive to New Orleans or you could easily Uber and it's not too expensive. Parking at the hotel is free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r321490415-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>321490415</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Close to the French Quarter, but Not Notified about Construction</t>
+  </si>
+  <si>
+    <t>This hotel is not far from the French Quarter.  The staff was friendly and the room was fine.  My companion and I were a little bothered that we were not notified about the construction at the entrance of the building.  The hotel was clean and comfortable.  It is a good pick if you want to stay outside of the downtown area.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is not far from the French Quarter.  The staff was friendly and the room was fine.  My companion and I were a little bothered that we were not notified about the construction at the entrance of the building.  The hotel was clean and comfortable.  It is a good pick if you want to stay outside of the downtown area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r310603493-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>310603493</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Hotel close to French Quarter</t>
+  </si>
+  <si>
+    <t>The hotel was about 15-20 minutes from the French Quarter.  When we entered the room, there was a definite odor to it.  It smelled musty and humid and felt that way as well.  Once you were in the room for a while you got used to the smell but it still felt damp. The breakfast area was nice and had a good selection of food that seemed to be fresh.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Jolynn B, General Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2015</t>
+  </si>
+  <si>
+    <t>The hotel was about 15-20 minutes from the French Quarter.  When we entered the room, there was a definite odor to it.  It smelled musty and humid and felt that way as well.  Once you were in the room for a while you got used to the smell but it still felt damp. The breakfast area was nice and had a good selection of food that seemed to be fresh.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r287946240-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>287946240</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t>Good location if you want out of downtown</t>
+  </si>
+  <si>
+    <t>My fiancé and I decided Thursday night to leave on a road trip Friday morning... We had no idea where we were even going until we left!  We decided on New Orleans and took off.  We were driving from Ohio so I had some time in the car to find a hotel.  We chose this hotel because we were only spending one full day in New Orleans before moving on.  It was a nice clean quiet room and the staff was very nice and helpful!  We are not bug drinkers so staying outside on the city was fine with us and the free hotel parking was a plus!  We drove in, found a parking garage and spent the day then jumped up the next morning... Are some breakfast (standard holiday inn express breakfast) and easily drove out of town from the hotel!  Would stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, General Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>My fiancé and I decided Thursday night to leave on a road trip Friday morning... We had no idea where we were even going until we left!  We decided on New Orleans and took off.  We were driving from Ohio so I had some time in the car to find a hotel.  We chose this hotel because we were only spending one full day in New Orleans before moving on.  It was a nice clean quiet room and the staff was very nice and helpful!  We are not bug drinkers so staying outside on the city was fine with us and the free hotel parking was a plus!  We drove in, found a parking garage and spent the day then jumped up the next morning... Are some breakfast (standard holiday inn express breakfast) and easily drove out of town from the hotel!  Would stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r287526332-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>287526332</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Awesome Business Hotel</t>
+  </si>
+  <si>
+    <t>Awesome stay 15 minutes outside NAS JRB.  Breakfast is served at 5AM - great for us early birds.  It is really good; scrambled eggs, biscuits and gravy, pancakes, cinnamon rolls, Greek yogurt, cereals and milk, breads with PBJ and honey, fresh fruit.  Everyday at 5PM they make popcorn in an old fashioned popcorn maker in the lobby.  The room is comparable to a much nicer hotel with the white duvet and two firm pillows and two soft pillows provided.  Great work station/desk.  Great cable options:  all of the HBOs and all of the Encores and maybe one other pay-cable channel.  The internet always worked, very fast.  Pool.  Little cardio/weight room. Location is perfect for this little town of strip malls and eateries. One mile from the Super WalMart in case you need something.  The staff is really nice and greets you on the way in and out every time you come or go.MoreShow less</t>
+  </si>
+  <si>
+    <t>Awesome stay 15 minutes outside NAS JRB.  Breakfast is served at 5AM - great for us early birds.  It is really good; scrambled eggs, biscuits and gravy, pancakes, cinnamon rolls, Greek yogurt, cereals and milk, breads with PBJ and honey, fresh fruit.  Everyday at 5PM they make popcorn in an old fashioned popcorn maker in the lobby.  The room is comparable to a much nicer hotel with the white duvet and two firm pillows and two soft pillows provided.  Great work station/desk.  Great cable options:  all of the HBOs and all of the Encores and maybe one other pay-cable channel.  The internet always worked, very fast.  Pool.  Little cardio/weight room. Location is perfect for this little town of strip malls and eateries. One mile from the Super WalMart in case you need something.  The staff is really nice and greets you on the way in and out every time you come or go.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r286357658-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>286357658</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Pretty good room</t>
+  </si>
+  <si>
+    <t>We stayed Memorial Day weekend after realizing that hotel prices in New Orleans was too expensive. This hotel was pretty good. It is minutes away from the French Quarters. The room was clean and the staff was really nice. They were helpful in giving us restaurant advice. The breakfast was really good. It took a while to get fresh towels (I guess with it being a holiday weekend) and the pool could use cleaning, but other than that, we really enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded July 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2015</t>
+  </si>
+  <si>
+    <t>We stayed Memorial Day weekend after realizing that hotel prices in New Orleans was too expensive. This hotel was pretty good. It is minutes away from the French Quarters. The room was clean and the staff was really nice. They were helpful in giving us restaurant advice. The breakfast was really good. It took a while to get fresh towels (I guess with it being a holiday weekend) and the pool could use cleaning, but other than that, we really enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r284217622-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>284217622</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Pleasant and Worth the stay</t>
+  </si>
+  <si>
+    <t>The staff (all) were very helpful and informative.  All  of our questions about directions, points of interest and the history of the area was on point.  The location of the hotel is ideal to New Orleans (about 10/15 minute ride).  Plenty of restaurants and shopping in walking distance. Rooms are kept up top notch with plenty of amenities.  The breakfast buffet bar was one of the best I've had at this level of motel (not just coffee and pastry).  Full meal.  We all agreed, that we would stay here on our future trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded July 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2015</t>
+  </si>
+  <si>
+    <t>The staff (all) were very helpful and informative.  All  of our questions about directions, points of interest and the history of the area was on point.  The location of the hotel is ideal to New Orleans (about 10/15 minute ride).  Plenty of restaurants and shopping in walking distance. Rooms are kept up top notch with plenty of amenities.  The breakfast buffet bar was one of the best I've had at this level of motel (not just coffee and pastry).  Full meal.  We all agreed, that we would stay here on our future trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r277473304-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>277473304</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Best stay ever</t>
+  </si>
+  <si>
+    <t>We stayed here from May 20th to the 24th.  Everything was great, from the staff being responsive, especially John, to the breakfast, to having a gym facility, and a nice pool area. The area was perfect as  I didn't have to drive  to get to places as restaurants, hair, and nail shops were close by. I LOVEEEEE The Daiquiri store that is less than two minutes to walk to. I definitely plan on staying here again if I come back to LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jolynn B, General Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded June 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here from May 20th to the 24th.  Everything was great, from the staff being responsive, especially John, to the breakfast, to having a gym facility, and a nice pool area. The area was perfect as  I didn't have to drive  to get to places as restaurants, hair, and nail shops were close by. I LOVEEEEE The Daiquiri store that is less than two minutes to walk to. I definitely plan on staying here again if I come back to LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r275460449-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>275460449</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>This location is  very secure for it to be close to New Orleans.   Traffic  can  get confusing with all the one way streets. Parking fills up fast so, it would advisable to get to this  location as early as possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jolynn B, General Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded May 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2015</t>
+  </si>
+  <si>
+    <t>This location is  very secure for it to be close to New Orleans.   Traffic  can  get confusing with all the one way streets. Parking fills up fast so, it would advisable to get to this  location as early as possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r275424479-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>275424479</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>This hotel was amazing.  The best I have ever stayed in.  Was a last minute choice. Safe.  The beds were comfortable with soft and firm pillows.  Clean pool.  Great consistent breakfast with lots of choices; worth eating at the hotel.  About ten minutes, easy access to the Interstate, to the French Quarter.  Staff was sincerely friendly and helpful.  Room was very clean.  Laundry available.  Microwave and Fridge in the room.  Large tv with cable channels.  Walk next door to Waffle House.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was amazing.  The best I have ever stayed in.  Was a last minute choice. Safe.  The beds were comfortable with soft and firm pillows.  Clean pool.  Great consistent breakfast with lots of choices; worth eating at the hotel.  About ten minutes, easy access to the Interstate, to the French Quarter.  Staff was sincerely friendly and helpful.  Room was very clean.  Laundry available.  Microwave and Fridge in the room.  Large tv with cable channels.  Walk next door to Waffle House.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r274870210-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>274870210</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Comfortable, Friendly, Nice Location</t>
+  </si>
+  <si>
+    <t>I enjoyed staying here. I was here for two weeks with the military, the first week was flawless. It wasn't too busy, the staff was friendly, no issues. The weekend and second week were a little bit more rough. House keeping was loud in the morning, the guests were rowdy at night (and it seemed like this was ok to the staff), and the dryer stopped working. The breakfast was good though, I'm gluten free and was happy to see there was enough for me to eat. Also, I'm from a safe (urban/suburban) area and was interested to see that this hotel hired uniformed security and also has cameras EVERYWHERE. As a small solo female, I wasn't sure what I thought about that.MoreShow less</t>
+  </si>
+  <si>
+    <t>I enjoyed staying here. I was here for two weeks with the military, the first week was flawless. It wasn't too busy, the staff was friendly, no issues. The weekend and second week were a little bit more rough. House keeping was loud in the morning, the guests were rowdy at night (and it seemed like this was ok to the staff), and the dryer stopped working. The breakfast was good though, I'm gluten free and was happy to see there was enough for me to eat. Also, I'm from a safe (urban/suburban) area and was interested to see that this hotel hired uniformed security and also has cameras EVERYWHERE. As a small solo female, I wasn't sure what I thought about that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r272491146-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>272491146</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Room was spotless, staff were helpful and friendly, comfortable bed, quiet, safe location. I am not a five star person, but here it was to me! I would definitely stay here again! If you want a great price and a great place to stay, pick this one. Close to New Orleans also!MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded May 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2015</t>
+  </si>
+  <si>
+    <t>Room was spotless, staff were helpful and friendly, comfortable bed, quiet, safe location. I am not a five star person, but here it was to me! I would definitely stay here again! If you want a great price and a great place to stay, pick this one. Close to New Orleans also!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r270849688-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>270849688</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>nice stay</t>
+  </si>
+  <si>
+    <t>We got 2 rooms for a night as we were moving my mom.  the rooms were good, the staff was nice.; breakfast was decent...My mom had a smoking room on the first floor and was happy.  My husband and I were on the 3rd floor. Room was good.  Only complaint is I wanted a diet coke and they were completely out at all machines.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>We got 2 rooms for a night as we were moving my mom.  the rooms were good, the staff was nice.; breakfast was decent...My mom had a smoking room on the first floor and was happy.  My husband and I were on the 3rd floor. Room was good.  Only complaint is I wanted a diet coke and they were completely out at all machines.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r255579618-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>255579618</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>Comfortable, convenient</t>
+  </si>
+  <si>
+    <t>We liked it. Here for an appointment in New Orleans, the Holiday Inn's in Nola booked up or pricey, this was a perfectly acceptable night stay. Right off the 10, around 10 miles outside of the city. Quiet, popular with tour buses..not much around the direct area, but a few good restaurants just up the road.The view from our room facing the road to the back of the nasty building was not much, but you know what you're sacrificing to stay here.Surprisingly, the downstairs breakfast was tasty..eggs, pancakes, fruit, coffee, cinnamon roll, biscuits and gravy! We'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded February 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2015</t>
+  </si>
+  <si>
+    <t>We liked it. Here for an appointment in New Orleans, the Holiday Inn's in Nola booked up or pricey, this was a perfectly acceptable night stay. Right off the 10, around 10 miles outside of the city. Quiet, popular with tour buses..not much around the direct area, but a few good restaurants just up the road.The view from our room facing the road to the back of the nasty building was not much, but you know what you're sacrificing to stay here.Surprisingly, the downstairs breakfast was tasty..eggs, pancakes, fruit, coffee, cinnamon roll, biscuits and gravy! We'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r255509782-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>255509782</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>The people make the difference here</t>
+  </si>
+  <si>
+    <t>My family and I met up from different parts of the country here for mardi gras 2015. This is typically a very stressful time for anyone working in the hospitality business, but we were really impressed by how pleasant, courteous, and patient all of the staff where during this very crazy time.  We stayed for 7 days and even had 2 guests in our room a day longer than expected due to the winter storms, but in the end, our room was always clean, the breakfast was great, the hotel clean inside and out, we were always greeted genuinely pleasantly by everyone we encountered, and felt many times like the staff went above and beyond what we asked for.  It's hard to differentiate the building from another hotel, but very easy with staff and it was definitely noticed by us.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I met up from different parts of the country here for mardi gras 2015. This is typically a very stressful time for anyone working in the hospitality business, but we were really impressed by how pleasant, courteous, and patient all of the staff where during this very crazy time.  We stayed for 7 days and even had 2 guests in our room a day longer than expected due to the winter storms, but in the end, our room was always clean, the breakfast was great, the hotel clean inside and out, we were always greeted genuinely pleasantly by everyone we encountered, and felt many times like the staff went above and beyond what we asked for.  It's hard to differentiate the building from another hotel, but very easy with staff and it was definitely noticed by us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r247316760-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>247316760</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>Budget friendly, easy commute to French Quarter</t>
+  </si>
+  <si>
+    <t>Seeking a budget-friendly alternative to high-priced hotels in downtown NOLA, we found this gem located within easy commuting distance to the French Quarter. The front-desk staff is first-rate: courteous, professional, and genuinely friendly. We were warmly greeted and enjoyed concierge-level service during our entire week-long stay.  Our room was quiet, clean, and spacious; the bathroom was well stocked with good-quality towels. The queen beds were very comfortable, providing a great night's sleep on better-quality sheets and pillows. We appreciated the HDTV (with dozens of channels); the fast, reliable wifi connection; and the convenience of a fridge and microwave. The only glitch was the cantankerous HVAC unit that triggered the smoke alarm when we turned on the heat. The free breakfast bar had plenty of hot and cold choices, though, which we enjoyed in the cheerful dining area.Staying here saved us a lot of money, which we spent enjoying the fabulous restaurants and attractions just a few miles away in the Big Easy. Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded February 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2015</t>
+  </si>
+  <si>
+    <t>Seeking a budget-friendly alternative to high-priced hotels in downtown NOLA, we found this gem located within easy commuting distance to the French Quarter. The front-desk staff is first-rate: courteous, professional, and genuinely friendly. We were warmly greeted and enjoyed concierge-level service during our entire week-long stay.  Our room was quiet, clean, and spacious; the bathroom was well stocked with good-quality towels. The queen beds were very comfortable, providing a great night's sleep on better-quality sheets and pillows. We appreciated the HDTV (with dozens of channels); the fast, reliable wifi connection; and the convenience of a fridge and microwave. The only glitch was the cantankerous HVAC unit that triggered the smoke alarm when we turned on the heat. The free breakfast bar had plenty of hot and cold choices, though, which we enjoyed in the cheerful dining area.Staying here saved us a lot of money, which we spent enjoying the fabulous restaurants and attractions just a few miles away in the Big Easy. Highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r247073405-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>247073405</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>New Year's Day 2015</t>
+  </si>
+  <si>
+    <t>I was in town for the Sugar Bowl. Taking into consideration the event and holiday, the daily rate was comparable to going rates in the area ($199.00 + tax), and much cheaper than hotels New Orleans. The hotel staff (Manager Lisa, and another young lady) were very polite and professional. The room was comfy and breakfast was a great deal (included in room fee). Also, the location looked a little shabby because of ongoing construction, but it's near the interstate, and only 12min. from downtown New Orleans - very convenient! There are also a lot of restaurants nearby, as well as a movie theater. Great job Holiday Inn Express - Harvey, LA!! This was my first stay at a Holiday Inn Express.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in town for the Sugar Bowl. Taking into consideration the event and holiday, the daily rate was comparable to going rates in the area ($199.00 + tax), and much cheaper than hotels New Orleans. The hotel staff (Manager Lisa, and another young lady) were very polite and professional. The room was comfy and breakfast was a great deal (included in room fee). Also, the location looked a little shabby because of ongoing construction, but it's near the interstate, and only 12min. from downtown New Orleans - very convenient! There are also a lot of restaurants nearby, as well as a movie theater. Great job Holiday Inn Express - Harvey, LA!! This was my first stay at a Holiday Inn Express.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r244976528-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>244976528</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Nice place clean and very helpfull</t>
+  </si>
+  <si>
+    <t>About 14 miles from the airport and about 5 miles from all the action of Bourbon street Canal street, French quarter etc. from the hotel it takes from 10 min. to 30 min. depending on the traffic. this holiday inn is a very friendly always there to help in any way they can and many helpful hints, such as where to park in down town New Orleans or a list of yummy restaurants for diner. The breakfast was good lots of choices. rooms are roomy and the cleaning crew doing a great job even have a supervisor with a clip board checking there work. If I were to return to New Orleans I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded January 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2015</t>
+  </si>
+  <si>
+    <t>About 14 miles from the airport and about 5 miles from all the action of Bourbon street Canal street, French quarter etc. from the hotel it takes from 10 min. to 30 min. depending on the traffic. this holiday inn is a very friendly always there to help in any way they can and many helpful hints, such as where to park in down town New Orleans or a list of yummy restaurants for diner. The breakfast was good lots of choices. rooms are roomy and the cleaning crew doing a great job even have a supervisor with a clip board checking there work. If I were to return to New Orleans I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r232692028-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>232692028</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>HIX Close to Nawlins</t>
+  </si>
+  <si>
+    <t>4.5 circles.  We enjoyed our stay here, as it provided a reprieve from the city at reasonable cost.  Location is suburb-like off a main thoroughfare, with many restaurant choices, Target, Best Buy, etc., and we felt safe.  As others have mentioned, the hotel is tucked behind a small strip mall with either the back of the shops or the hotel parking lot (and apartments) as a view.  The view did not matter to us, as we were visiting NO during daylight hours.  It's just a few minutes' drive into the city, but you might want to plan ahead by mapping out the less expensive but best located parking.
+The positives of this HIX include a very friendly yet professional staff, super-clean room and lobby (very lovely), and astoundingly clean and well-stocked breakfast area.  Every staff member spoke to us when we passed and seemed genuinely interested in our comfort and our NO experience.  The room was comfortable, with plenty of bathroom counter space and a fine shower head.  TV channels and internet connection were good.  It was quiet and we slept well.  
+Breakfast was what you would find at most HIXs; but the difference was Rosa (I believe that's her name), who maintained the entire breakfast bar and dining room in spotless condition, kept the food coming out even just before the end of hours, and voluntarily showed us exactly how the pancake machine works.  This is also the first...4.5 circles.  We enjoyed our stay here, as it provided a reprieve from the city at reasonable cost.  Location is suburb-like off a main thoroughfare, with many restaurant choices, Target, Best Buy, etc., and we felt safe.  As others have mentioned, the hotel is tucked behind a small strip mall with either the back of the shops or the hotel parking lot (and apartments) as a view.  The view did not matter to us, as we were visiting NO during daylight hours.  It's just a few minutes' drive into the city, but you might want to plan ahead by mapping out the less expensive but best located parking.The positives of this HIX include a very friendly yet professional staff, super-clean room and lobby (very lovely), and astoundingly clean and well-stocked breakfast area.  Every staff member spoke to us when we passed and seemed genuinely interested in our comfort and our NO experience.  The room was comfortable, with plenty of bathroom counter space and a fine shower head.  TV channels and internet connection were good.  It was quiet and we slept well.  Breakfast was what you would find at most HIXs; but the difference was Rosa (I believe that's her name), who maintained the entire breakfast bar and dining room in spotless condition, kept the food coming out even just before the end of hours, and voluntarily showed us exactly how the pancake machine works.  This is also the first time I've witnessed any breakfast attendant get down on hands and knees and scrub the legs of the dining tables (after breakfast hours, of course).A nice touch was a letter inside the room's guest book, which made it clear that management and staff are working hard to make their hotel great.  This was echoed in a page slipped under our door on checkout morning, signed by 16 team members, which explained folios, late checkout, boarding pass printing, and how to contact the GM.  A word of advice to mangement:  The several-page guest book letter is in dire need of editing (grammar, typos, etc.) and the under-door letter was sloppily copied (at an angle) with a machine running out of ink.  Details!The small pool area seemed an afterthought, wedged between the hotel and the parking lot, but it appeared well landscaped and the best that could be done in a tight space.A slight negative was a degree of humidity in our room that the a/c could not control.  However, this IS the south and it rained heavily during our visit; it certainly did not bother us and was just something we noticed.  We'd stay here again, as it's obvious the hotel is managed with a high level of caring.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded October 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2014</t>
+  </si>
+  <si>
+    <t>4.5 circles.  We enjoyed our stay here, as it provided a reprieve from the city at reasonable cost.  Location is suburb-like off a main thoroughfare, with many restaurant choices, Target, Best Buy, etc., and we felt safe.  As others have mentioned, the hotel is tucked behind a small strip mall with either the back of the shops or the hotel parking lot (and apartments) as a view.  The view did not matter to us, as we were visiting NO during daylight hours.  It's just a few minutes' drive into the city, but you might want to plan ahead by mapping out the less expensive but best located parking.
+The positives of this HIX include a very friendly yet professional staff, super-clean room and lobby (very lovely), and astoundingly clean and well-stocked breakfast area.  Every staff member spoke to us when we passed and seemed genuinely interested in our comfort and our NO experience.  The room was comfortable, with plenty of bathroom counter space and a fine shower head.  TV channels and internet connection were good.  It was quiet and we slept well.  
+Breakfast was what you would find at most HIXs; but the difference was Rosa (I believe that's her name), who maintained the entire breakfast bar and dining room in spotless condition, kept the food coming out even just before the end of hours, and voluntarily showed us exactly how the pancake machine works.  This is also the first...4.5 circles.  We enjoyed our stay here, as it provided a reprieve from the city at reasonable cost.  Location is suburb-like off a main thoroughfare, with many restaurant choices, Target, Best Buy, etc., and we felt safe.  As others have mentioned, the hotel is tucked behind a small strip mall with either the back of the shops or the hotel parking lot (and apartments) as a view.  The view did not matter to us, as we were visiting NO during daylight hours.  It's just a few minutes' drive into the city, but you might want to plan ahead by mapping out the less expensive but best located parking.The positives of this HIX include a very friendly yet professional staff, super-clean room and lobby (very lovely), and astoundingly clean and well-stocked breakfast area.  Every staff member spoke to us when we passed and seemed genuinely interested in our comfort and our NO experience.  The room was comfortable, with plenty of bathroom counter space and a fine shower head.  TV channels and internet connection were good.  It was quiet and we slept well.  Breakfast was what you would find at most HIXs; but the difference was Rosa (I believe that's her name), who maintained the entire breakfast bar and dining room in spotless condition, kept the food coming out even just before the end of hours, and voluntarily showed us exactly how the pancake machine works.  This is also the first time I've witnessed any breakfast attendant get down on hands and knees and scrub the legs of the dining tables (after breakfast hours, of course).A nice touch was a letter inside the room's guest book, which made it clear that management and staff are working hard to make their hotel great.  This was echoed in a page slipped under our door on checkout morning, signed by 16 team members, which explained folios, late checkout, boarding pass printing, and how to contact the GM.  A word of advice to mangement:  The several-page guest book letter is in dire need of editing (grammar, typos, etc.) and the under-door letter was sloppily copied (at an angle) with a machine running out of ink.  Details!The small pool area seemed an afterthought, wedged between the hotel and the parking lot, but it appeared well landscaped and the best that could be done in a tight space.A slight negative was a degree of humidity in our room that the a/c could not control.  However, this IS the south and it rained heavily during our visit; it certainly did not bother us and was just something we noticed.  We'd stay here again, as it's obvious the hotel is managed with a high level of caring.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r226111611-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>226111611</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>HIE</t>
+  </si>
+  <si>
+    <t>I had a pleasant stay at Holiday Inn Express. The facilities were top notch which matched their service. I highly recommend this place to anyone. The breakfast was exceptionally made, with coffee brewed to perfection (I know, I'm a coffee buff).MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded September 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2014</t>
+  </si>
+  <si>
+    <t>I had a pleasant stay at Holiday Inn Express. The facilities were top notch which matched their service. I highly recommend this place to anyone. The breakfast was exceptionally made, with coffee brewed to perfection (I know, I'm a coffee buff).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r220274535-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>220274535</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>Don't let first impressions fool you</t>
+  </si>
+  <si>
+    <t>My husband and decided at the last minute to make a weekend trip to NOLA and since we were on a budget we chose this hotel because it offered  free breakfast, free parking and it was close enough that we could drive in to town in about 15 minutes. I have to say that when we drove up my thought was WOW and not in a good way. The hotel sits behind a somewhat rundown strip mall and an automobile service center and on the other side a tall chain link fence separates the property from an empty field and beyond that was apartment housing. 
+However, once inside I was pleasantly surprised by the very friendly and professional staff. Despite arriving a bit before check in time, they found us a room that was ready and allowed us to check in. The room was exactly as pictured on the website and despite the disappointing view, it was very clean and comfortable. Throughout our weekend stay all staff, from the ladies in the housekeeping department that we sometimes passed in the hall to the front desk staff, was very friendly but not intrusive The breakfast buffet was exactly what I expected with everything from fresh fruit and juices to a pancake machine and those amazing cinnamon rolls. 
+As far as the area is concerned, at first it appeared to be on the decline but on exploring the area we found that...My husband and decided at the last minute to make a weekend trip to NOLA and since we were on a budget we chose this hotel because it offered  free breakfast, free parking and it was close enough that we could drive in to town in about 15 minutes. I have to say that when we drove up my thought was WOW and not in a good way. The hotel sits behind a somewhat rundown strip mall and an automobile service center and on the other side a tall chain link fence separates the property from an empty field and beyond that was apartment housing. However, once inside I was pleasantly surprised by the very friendly and professional staff. Despite arriving a bit before check in time, they found us a room that was ready and allowed us to check in. The room was exactly as pictured on the website and despite the disappointing view, it was very clean and comfortable. Throughout our weekend stay all staff, from the ladies in the housekeeping department that we sometimes passed in the hall to the front desk staff, was very friendly but not intrusive The breakfast buffet was exactly what I expected with everything from fresh fruit and juices to a pancake machine and those amazing cinnamon rolls. As far as the area is concerned, at first it appeared to be on the decline but on exploring the area we found that this was not necessarily the case. Close to LA 90 and Manhattan there are numerous new strip centers that included a Target.I really enjoyed the stay and would not hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded August 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2014</t>
+  </si>
+  <si>
+    <t>My husband and decided at the last minute to make a weekend trip to NOLA and since we were on a budget we chose this hotel because it offered  free breakfast, free parking and it was close enough that we could drive in to town in about 15 minutes. I have to say that when we drove up my thought was WOW and not in a good way. The hotel sits behind a somewhat rundown strip mall and an automobile service center and on the other side a tall chain link fence separates the property from an empty field and beyond that was apartment housing. 
+However, once inside I was pleasantly surprised by the very friendly and professional staff. Despite arriving a bit before check in time, they found us a room that was ready and allowed us to check in. The room was exactly as pictured on the website and despite the disappointing view, it was very clean and comfortable. Throughout our weekend stay all staff, from the ladies in the housekeeping department that we sometimes passed in the hall to the front desk staff, was very friendly but not intrusive The breakfast buffet was exactly what I expected with everything from fresh fruit and juices to a pancake machine and those amazing cinnamon rolls. 
+As far as the area is concerned, at first it appeared to be on the decline but on exploring the area we found that...My husband and decided at the last minute to make a weekend trip to NOLA and since we were on a budget we chose this hotel because it offered  free breakfast, free parking and it was close enough that we could drive in to town in about 15 minutes. I have to say that when we drove up my thought was WOW and not in a good way. The hotel sits behind a somewhat rundown strip mall and an automobile service center and on the other side a tall chain link fence separates the property from an empty field and beyond that was apartment housing. However, once inside I was pleasantly surprised by the very friendly and professional staff. Despite arriving a bit before check in time, they found us a room that was ready and allowed us to check in. The room was exactly as pictured on the website and despite the disappointing view, it was very clean and comfortable. Throughout our weekend stay all staff, from the ladies in the housekeeping department that we sometimes passed in the hall to the front desk staff, was very friendly but not intrusive The breakfast buffet was exactly what I expected with everything from fresh fruit and juices to a pancake machine and those amazing cinnamon rolls. As far as the area is concerned, at first it appeared to be on the decline but on exploring the area we found that this was not necessarily the case. Close to LA 90 and Manhattan there are numerous new strip centers that included a Target.I really enjoyed the stay and would not hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r215178084-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>215178084</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>Very friendly staff.</t>
+  </si>
+  <si>
+    <t>Kyle, Anthony, Jennifer  &amp; Requelle are all wonder, very friendly &amp; extremely nice. We could have not felt more welcomed &amp; treated with respect &amp; kindness than the service we received from them. The suite was very roomy. I LOVED the towels, they were very soft, thick &amp; extremely white. The bed as well as let out very comfy. The bathroom was spotlessly clean. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Kyle, Anthony, Jennifer  &amp; Requelle are all wonder, very friendly &amp; extremely nice. We could have not felt more welcomed &amp; treated with respect &amp; kindness than the service we received from them. The suite was very roomy. I LOVED the towels, they were very soft, thick &amp; extremely white. The bed as well as let out very comfy. The bathroom was spotlessly clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r214997637-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>214997637</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Great room!!</t>
+  </si>
+  <si>
+    <t>The staff was friendly at checking in and checking out. The room was very clean. Unfortunately we did not get a chance to use the pool, but the area was clean. The breakfast was very good, with plenty of choices. The overall experience was very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was friendly at checking in and checking out. The room was very clean. Unfortunately we did not get a chance to use the pool, but the area was clean. The breakfast was very good, with plenty of choices. The overall experience was very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r213927759-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>213927759</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Nice place!</t>
+  </si>
+  <si>
+    <t>This is our 2nd time staying in this hotel. Staff has always been very friendly, and welcoming! The rooms were well cared for and clean. We didn't use the pool, but it looked well maintained. Breakfast area was roomy and we'll stocked. We had two rooms and both were comfortable and quiet!  Next time we need a place to stay near NOLA, this is where it'll be! If you're going on a cruise, ask about their transportation to and from the port!  Very economical!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>This is our 2nd time staying in this hotel. Staff has always been very friendly, and welcoming! The rooms were well cared for and clean. We didn't use the pool, but it looked well maintained. Breakfast area was roomy and we'll stocked. We had two rooms and both were comfortable and quiet!  Next time we need a place to stay near NOLA, this is where it'll be! If you're going on a cruise, ask about their transportation to and from the port!  Very economical!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r210853596-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>210853596</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Very Good Place to stay</t>
+  </si>
+  <si>
+    <t>Great stay.This hotel  has a great location, very close to many different locations for great dining. The rooms are large and is very clean and comfortable. I had absolutely no complaints during my stay.Good rates... a good place to stay!KJMoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded June 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2014</t>
+  </si>
+  <si>
+    <t>Great stay.This hotel  has a great location, very close to many different locations for great dining. The rooms are large and is very clean and comfortable. I had absolutely no complaints during my stay.Good rates... a good place to stay!KJMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r207726594-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>207726594</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express in Harvey LA is a great place to stay, the rooms are clean and smell good, even the smoking rooms do not have a strong foul odor, the gym could use a little work as it is a cardio fitness center with out any weights. the parking lot is well lit and pretty secure. Over all this is a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded May 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2014</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express in Harvey LA is a great place to stay, the rooms are clean and smell good, even the smoking rooms do not have a strong foul odor, the gym could use a little work as it is a cardio fitness center with out any weights. the parking lot is well lit and pretty secure. Over all this is a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r207572651-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>207572651</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>The hotel was a nice stay. We have stayed there before and it has been pleasant. However a few things that need to be addressed.1. The wireless internet is lacking. I could not connect to the wireless ended up having to use the Ethernet cord to connect on some important business.2. The TV listing card didn't match up with stations on the tv and the tv stations take forever to come up on the tv.3. Room service was slow on the day when the hotel had been fully booked. Got dirty towels but never returned with fresh towels or to make the bed.4. The basketball teams, not a reflection on hotel staff, staying there were loud and constantly running up and down the hallway.5. Smokers hanging out at the front door. I prefer to not have to walk through a cloud of cigarette smoke. Positives:Clean, Nice Beds, Nice Amenities, great air conditioner-fan runs so you don't have it kicking on and off all through the night.Great front desk staffMoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, General Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded May 30, 2014</t>
+  </si>
+  <si>
+    <t>The hotel was a nice stay. We have stayed there before and it has been pleasant. However a few things that need to be addressed.1. The wireless internet is lacking. I could not connect to the wireless ended up having to use the Ethernet cord to connect on some important business.2. The TV listing card didn't match up with stations on the tv and the tv stations take forever to come up on the tv.3. Room service was slow on the day when the hotel had been fully booked. Got dirty towels but never returned with fresh towels or to make the bed.4. The basketball teams, not a reflection on hotel staff, staying there were loud and constantly running up and down the hallway.5. Smokers hanging out at the front door. I prefer to not have to walk through a cloud of cigarette smoke. Positives:Clean, Nice Beds, Nice Amenities, great air conditioner-fan runs so you don't have it kicking on and off all through the night.Great front desk staffMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r203535454-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>203535454</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Trying ...</t>
+  </si>
+  <si>
+    <t>This hotel really wants to be something it has not quite achieved.  The rooms are large and comfortable, but shabby.  Appliances wobble.  TV reception is sketchy and we had many power outages during a three day stay.  The location makes for convenient travel to New Orleans and offers many choices for dining and shopping but the pool faces a not-so-scenic apartment complex.  A Tuesday night “Manager’s Reception”was boxes of Little Caesar’s Pizza and a cooler full of canned soda.  The breakfast area was spacious and the morning meal offered many choices but the housekeeping staff used it like a break room while guests dined.  (I noticed this a lot during a week of travel down the southeast coast.  I’m glad the food is not wasted, but managers need to warn employees to keep their conversations “family friendly” if staff is allowed to eat in the breakfast area with hotel guests).MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded May 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2014</t>
+  </si>
+  <si>
+    <t>This hotel really wants to be something it has not quite achieved.  The rooms are large and comfortable, but shabby.  Appliances wobble.  TV reception is sketchy and we had many power outages during a three day stay.  The location makes for convenient travel to New Orleans and offers many choices for dining and shopping but the pool faces a not-so-scenic apartment complex.  A Tuesday night “Manager’s Reception”was boxes of Little Caesar’s Pizza and a cooler full of canned soda.  The breakfast area was spacious and the morning meal offered many choices but the housekeeping staff used it like a break room while guests dined.  (I noticed this a lot during a week of travel down the southeast coast.  I’m glad the food is not wasted, but managers need to warn employees to keep their conversations “family friendly” if staff is allowed to eat in the breakfast area with hotel guests).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r202268826-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>202268826</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>Had an uneventful stay.  Nice room, nice breakfast, nice location.  We had just spent two nights in the French Quarter and were eaten alive by the parking fees.  Walking distance to a variety of restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, General Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded April 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2014</t>
+  </si>
+  <si>
+    <t>Had an uneventful stay.  Nice room, nice breakfast, nice location.  We had just spent two nights in the French Quarter and were eaten alive by the parking fees.  Walking distance to a variety of restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r198234834-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>198234834</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>Very nice was there New Years Eve</t>
+  </si>
+  <si>
+    <t>Was on our way taking our son to college and he had his soft side jeep full of stuff it was perfectly fine the whole time there, we were a bit worried it might get broken into but it was fine. The staff was great very helpful with everything from calling a cab to storing our fish we caught, that we left for the security guard. What a pleasant stay. Close to real close to New Orleans but not down town, defiantly a bonus.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded March 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2014</t>
+  </si>
+  <si>
+    <t>Was on our way taking our son to college and he had his soft side jeep full of stuff it was perfectly fine the whole time there, we were a bit worried it might get broken into but it was fine. The staff was great very helpful with everything from calling a cab to storing our fish we caught, that we left for the security guard. What a pleasant stay. Close to real close to New Orleans but not down town, defiantly a bonus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r197586316-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>197586316</t>
+  </si>
+  <si>
+    <t>03/16/2014</t>
+  </si>
+  <si>
+    <t>Room was OK, Staff is very nice. Location worked for us...</t>
+  </si>
+  <si>
+    <t>Our room was OK, kind of dated. The bathroom needs some TLC. Minor things like rust on the door hinges, needs the caulk to be replaced. Stuff like that. Otherwise the jotel worked well for us. The breakfast was very good each day, I have a hard time knocking any free breakfast. The washer and drier were an added plus that we actually used. The staff was very nice, they greet you like you're family. They do have a pool, but it was not open to swimming yet. The location worked for us as well. There is a burger place two doors up you can walk to. The drive to downtown was very easy. We would park at Harrahs for free if you play for half an hour. Once there easy and safe walk to french quarter. The parking at the hotel was fine, I had a very expensive car for this trip and felt fine with it in the lot. This would be a great spot to stay if you want to go into New Orleans, but not stay in there. Otherwise there is not much for kids to do here.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded March 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2014</t>
+  </si>
+  <si>
+    <t>Our room was OK, kind of dated. The bathroom needs some TLC. Minor things like rust on the door hinges, needs the caulk to be replaced. Stuff like that. Otherwise the jotel worked well for us. The breakfast was very good each day, I have a hard time knocking any free breakfast. The washer and drier were an added plus that we actually used. The staff was very nice, they greet you like you're family. They do have a pool, but it was not open to swimming yet. The location worked for us as well. There is a burger place two doors up you can walk to. The drive to downtown was very easy. We would park at Harrahs for free if you play for half an hour. Once there easy and safe walk to french quarter. The parking at the hotel was fine, I had a very expensive car for this trip and felt fine with it in the lot. This would be a great spot to stay if you want to go into New Orleans, but not stay in there. Otherwise there is not much for kids to do here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r195268938-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>195268938</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>Business Trip - Great Location for Project Work</t>
+  </si>
+  <si>
+    <t>I stayed at this location over the weekend for work. With Mardis Gras fast approaching I had a difficult time finding a place to stay. I knew I needed something close to Gretna and Harvey, easy access to office supplies and having food nearby is always a bonus. This site met all of my "locale" needs - even if it is in a "weird place" as another poster stated. Beyond that - the staff was friendly, hooked me up with extra coffee, and always had a kind word. They joked and laughed with guests and among themselves which makes the front lobby atmosphere a very happy place. I agree, the prices do seem high, but looking at upcoming, annual events - I get it. My room was clean and spacious and the only smells I could discern started in the elevator ar at breakfast time! I didn't notice anything perfumyMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this location over the weekend for work. With Mardis Gras fast approaching I had a difficult time finding a place to stay. I knew I needed something close to Gretna and Harvey, easy access to office supplies and having food nearby is always a bonus. This site met all of my "locale" needs - even if it is in a "weird place" as another poster stated. Beyond that - the staff was friendly, hooked me up with extra coffee, and always had a kind word. They joked and laughed with guests and among themselves which makes the front lobby atmosphere a very happy place. I agree, the prices do seem high, but looking at upcoming, annual events - I get it. My room was clean and spacious and the only smells I could discern started in the elevator ar at breakfast time! I didn't notice anything perfumyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r193772120-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>193772120</t>
+  </si>
+  <si>
+    <t>02/11/2014</t>
+  </si>
+  <si>
+    <t>Priced way too high considering location</t>
+  </si>
+  <si>
+    <t>Holiday Inn Expresses are generally great as they offer consistency for the business traveler in comfort, amenities, service, etc. That said, having paid $99 a nigh in New York, unarguably one of the most expensive cities to get a hotel room, and get a room here reduced from $139 to $119 as the bottom of what they could offer was laughable. They are on the wrong side of the river to demand those rates. Since that was the best they could do, I moved to the Hampton Inn and Suites across the river, and received a much larger room, ballet parking, and a much better breakfast for a flat rate of $115, all inclusive.Needless to say there will be no reason for me to return to this location when there are clearly better quality options for less.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded February 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2014</t>
+  </si>
+  <si>
+    <t>Holiday Inn Expresses are generally great as they offer consistency for the business traveler in comfort, amenities, service, etc. That said, having paid $99 a nigh in New York, unarguably one of the most expensive cities to get a hotel room, and get a room here reduced from $139 to $119 as the bottom of what they could offer was laughable. They are on the wrong side of the river to demand those rates. Since that was the best they could do, I moved to the Hampton Inn and Suites across the river, and received a much larger room, ballet parking, and a much better breakfast for a flat rate of $115, all inclusive.Needless to say there will be no reason for me to return to this location when there are clearly better quality options for less.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r190860329-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>190860329</t>
+  </si>
+  <si>
+    <t>01/14/2014</t>
+  </si>
+  <si>
+    <t>Very nice West Bank hotel</t>
+  </si>
+  <si>
+    <t>My wife, I, and our 2 grandkids stayed in this Holiday Inn Express in Harvey recently. We travel here often to visit the grandkids and we usually have them stay with us one night so their parents can get out. We've tried just about all the hotels in this area (see reviews), and this is the best yet. It costs quite a bit more, but it's worth it once in a while. The room was spacious and the breakfast was more than adequate for a hotel. The kids had a great time....especially opening their Christmas presents from us. The staff was very nice and accomodated us warmly. If you don't mind spending about 15-20% more a nght, this hotel is worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>My wife, I, and our 2 grandkids stayed in this Holiday Inn Express in Harvey recently. We travel here often to visit the grandkids and we usually have them stay with us one night so their parents can get out. We've tried just about all the hotels in this area (see reviews), and this is the best yet. It costs quite a bit more, but it's worth it once in a while. The room was spacious and the breakfast was more than adequate for a hotel. The kids had a great time....especially opening their Christmas presents from us. The staff was very nice and accomodated us warmly. If you don't mind spending about 15-20% more a nght, this hotel is worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r189891878-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>189891878</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>Pricier than others in the area, but worth it!</t>
+  </si>
+  <si>
+    <t>My daughter and I had to make a last minute reservation for a job interview that she had the next day.  The price was about $50 more than neighboring hotels, but after having experienced a couple of them, it was worth it!The staff was very friendly and helpful, the room was comfortable and roomy.  Like another guest has mentioned, there is a very perfumy odor in the rooms which is offputting at first, but not  horrible. Beds were not great, but they weren't too bad.  Breakfast was wonderful and we will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded January 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2014</t>
+  </si>
+  <si>
+    <t>My daughter and I had to make a last minute reservation for a job interview that she had the next day.  The price was about $50 more than neighboring hotels, but after having experienced a couple of them, it was worth it!The staff was very friendly and helpful, the room was comfortable and roomy.  Like another guest has mentioned, there is a very perfumy odor in the rooms which is offputting at first, but not  horrible. Beds were not great, but they weren't too bad.  Breakfast was wonderful and we will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r183994918-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>183994918</t>
+  </si>
+  <si>
+    <t>11/07/2013</t>
+  </si>
+  <si>
+    <t>Not far from New Orleans</t>
+  </si>
+  <si>
+    <t>Arrived in town on a sold-out weekend, so only place I could find for reasonable price was this Holiday Inn in Harvey (before it also sold out).  The lobby is small, but the rooms are nicely sized and clean.  Service was exceptionally friendly and I loved that they acknowledged our IHG status by bringing us a gift bag with water, fruit, and hand written note.  Great touch!  There's a lot of interesting stuff in the Harvey area too, and I wouldn't mind staying longer next timeMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Arrived in town on a sold-out weekend, so only place I could find for reasonable price was this Holiday Inn in Harvey (before it also sold out).  The lobby is small, but the rooms are nicely sized and clean.  Service was exceptionally friendly and I loved that they acknowledged our IHG status by bringing us a gift bag with water, fruit, and hand written note.  Great touch!  There's a lot of interesting stuff in the Harvey area too, and I wouldn't mind staying longer next timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r177728716-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>177728716</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>good value for the money</t>
+  </si>
+  <si>
+    <t>We were looking for a overnight place in New Orleans and after seeing the city "recovery tax" of about 25%, we started looking at surrounding area.  Harvey is just across the river next to Algiers. Took us about 15-20 minutes to get downtown N.O. for supper.The rooms were clean, easy check in and the staff was very courteous and informative. The only negative we had was that there was a strong odor in the hall and a very strong perfumed smell in the room. But it wasn't real offensive.The breakfast was typical Holiday Inn Express. Nothing special, scrambled eggs, biscuits gravy, sweet rolls, cereal etc. But we will return to stay here again,MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded September 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2013</t>
+  </si>
+  <si>
+    <t>We were looking for a overnight place in New Orleans and after seeing the city "recovery tax" of about 25%, we started looking at surrounding area.  Harvey is just across the river next to Algiers. Took us about 15-20 minutes to get downtown N.O. for supper.The rooms were clean, easy check in and the staff was very courteous and informative. The only negative we had was that there was a strong odor in the hall and a very strong perfumed smell in the room. But it wasn't real offensive.The breakfast was typical Holiday Inn Express. Nothing special, scrambled eggs, biscuits gravy, sweet rolls, cereal etc. But we will return to stay here again,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r170348055-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>170348055</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>Great Place thanks!</t>
+  </si>
+  <si>
+    <t>This hotel has a very friendly and accomodating staff everything was perfect from check in to the bill under the door. Closest nice hotel to the Boothville Helicopter bases on Hwy 23 on the far south side of Plaquemines Parish near Venice.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded August 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2013</t>
+  </si>
+  <si>
+    <t>This hotel has a very friendly and accomodating staff everything was perfect from check in to the bill under the door. Closest nice hotel to the Boothville Helicopter bases on Hwy 23 on the far south side of Plaquemines Parish near Venice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r166473444-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>166473444</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>Excellent Stay-just not the most scenic location...</t>
+  </si>
+  <si>
+    <t>I had seen the positive reviews for this place, so when my work booked my trip I figured it was a good bet. And it really was-every staff member was super friendly and it is really a nicely decorated hotel-rooms are really pretty. The breakfast is a nice offering although I wished there was oatmeal or fresh cut fruit too. My only negative is the location is very strange- it is a building behind a building...and not really near anywhere you would want to go unless you would like to go to Walgreens next door. There is a restaurant next door "New Orleans Burger and Seafood" and the Seafood platter was excellent-except for the side of bread which was just a charred piece of bread. The thin catfish was delectable (and I thought I didn't like catfish). I would have loved to be downtown for my stay, and this hotel is a good 15 min away. But if you have to stay in Harvey/Marrero, this is a great pick. Outdoor Pool looked really nice but I never had the chance to dip in. Parking was a little tight since the rows are a bit close together and there wasn't much parking to find at night-but I always found a spot during my 4 night stay. Free parking too I should mention. Not too far from the hotel is any store you might need or fast food. A mall is a...I had seen the positive reviews for this place, so when my work booked my trip I figured it was a good bet. And it really was-every staff member was super friendly and it is really a nicely decorated hotel-rooms are really pretty. The breakfast is a nice offering although I wished there was oatmeal or fresh cut fruit too. My only negative is the location is very strange- it is a building behind a building...and not really near anywhere you would want to go unless you would like to go to Walgreens next door. There is a restaurant next door "New Orleans Burger and Seafood" and the Seafood platter was excellent-except for the side of bread which was just a charred piece of bread. The thin catfish was delectable (and I thought I didn't like catfish). I would have loved to be downtown for my stay, and this hotel is a good 15 min away. But if you have to stay in Harvey/Marrero, this is a great pick. Outdoor Pool looked really nice but I never had the chance to dip in. Parking was a little tight since the rows are a bit close together and there wasn't much parking to find at night-but I always found a spot during my 4 night stay. Free parking too I should mention. Not too far from the hotel is any store you might need or fast food. A mall is a few miles down the road too that I drove to for the sole intention of celebrating my bad day at work with some Cafe Du Monde beignets...yummy therapy;) Overall.Not an upscale area but seemed safe enough for a female traveling alone. I would stay again-if I can't stay in the FQ!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded July 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2013</t>
+  </si>
+  <si>
+    <t>I had seen the positive reviews for this place, so when my work booked my trip I figured it was a good bet. And it really was-every staff member was super friendly and it is really a nicely decorated hotel-rooms are really pretty. The breakfast is a nice offering although I wished there was oatmeal or fresh cut fruit too. My only negative is the location is very strange- it is a building behind a building...and not really near anywhere you would want to go unless you would like to go to Walgreens next door. There is a restaurant next door "New Orleans Burger and Seafood" and the Seafood platter was excellent-except for the side of bread which was just a charred piece of bread. The thin catfish was delectable (and I thought I didn't like catfish). I would have loved to be downtown for my stay, and this hotel is a good 15 min away. But if you have to stay in Harvey/Marrero, this is a great pick. Outdoor Pool looked really nice but I never had the chance to dip in. Parking was a little tight since the rows are a bit close together and there wasn't much parking to find at night-but I always found a spot during my 4 night stay. Free parking too I should mention. Not too far from the hotel is any store you might need or fast food. A mall is a...I had seen the positive reviews for this place, so when my work booked my trip I figured it was a good bet. And it really was-every staff member was super friendly and it is really a nicely decorated hotel-rooms are really pretty. The breakfast is a nice offering although I wished there was oatmeal or fresh cut fruit too. My only negative is the location is very strange- it is a building behind a building...and not really near anywhere you would want to go unless you would like to go to Walgreens next door. There is a restaurant next door "New Orleans Burger and Seafood" and the Seafood platter was excellent-except for the side of bread which was just a charred piece of bread. The thin catfish was delectable (and I thought I didn't like catfish). I would have loved to be downtown for my stay, and this hotel is a good 15 min away. But if you have to stay in Harvey/Marrero, this is a great pick. Outdoor Pool looked really nice but I never had the chance to dip in. Parking was a little tight since the rows are a bit close together and there wasn't much parking to find at night-but I always found a spot during my 4 night stay. Free parking too I should mention. Not too far from the hotel is any store you might need or fast food. A mall is a few miles down the road too that I drove to for the sole intention of celebrating my bad day at work with some Cafe Du Monde beignets...yummy therapy;) Overall.Not an upscale area but seemed safe enough for a female traveling alone. I would stay again-if I can't stay in the FQ!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r161780606-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>161780606</t>
+  </si>
+  <si>
+    <t>05/25/2013</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Our check in experience was one of the best I've had.  Both Kevana and  Kyle at the front desk were helpful and accommodating.  Our room was clean, quiet and comfortable.   I used the washer/dryer, $1.00 each and they both actually worked. There was popcorn and hot beverages in the dining area.  Breakfast was typical HI Express fare.  The eggs and bacon were cooked perfectly.  Both women working in the area greeted me with a smile and cheerful, welcoming "Good mornings"  We chose this hotel because it was near the Jean Lafitte Barataria Preserve.  It is on a stretch of road with a wide range of chain and local restaurants and stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded May 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2013</t>
+  </si>
+  <si>
+    <t>Our check in experience was one of the best I've had.  Both Kevana and  Kyle at the front desk were helpful and accommodating.  Our room was clean, quiet and comfortable.   I used the washer/dryer, $1.00 each and they both actually worked. There was popcorn and hot beverages in the dining area.  Breakfast was typical HI Express fare.  The eggs and bacon were cooked perfectly.  Both women working in the area greeted me with a smile and cheerful, welcoming "Good mornings"  We chose this hotel because it was near the Jean Lafitte Barataria Preserve.  It is on a stretch of road with a wide range of chain and local restaurants and stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r155203340-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>155203340</t>
+  </si>
+  <si>
+    <t>03/20/2013</t>
+  </si>
+  <si>
+    <t>Great deal 8 miles from city with lots of amenities and shopping nearby. Courteous staff too.Holiday Inn Express is a great deal considering what you get compared to larger luxury hotels. I left some clothing in the closet and they were glad to locate it and mail it back to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Great deal 8 miles from city with lots of amenities and shopping nearby. Courteous staff too.Holiday Inn Express is a great deal considering what you get compared to larger luxury hotels. I left some clothing in the closet and they were glad to locate it and mail it back to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r154552631-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>154552631</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Close to Downtown New Orleans</t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn Express in Harvey LA. The staff at check in was wonderful and was willing to change our room from 2 queen beds to a king bed but unfortunately there was not one available on our second night. It you need a room with two bed they have 2 QUEENS believe me there are not to many hotels in NOLA that do. The rooms came with a microwave and refrigerator along with the standard coffee maker. The breakfast was awesome from cereal to eggs, pancakes to bacon and ham. The ladies that keep the breakfast going made sure nothing ran out and all the tables and counters were clean. The area is very convenient for shopping and local dining. All this and being only 15 min. to the French Quarters.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded March 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2013</t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn Express in Harvey LA. The staff at check in was wonderful and was willing to change our room from 2 queen beds to a king bed but unfortunately there was not one available on our second night. It you need a room with two bed they have 2 QUEENS believe me there are not to many hotels in NOLA that do. The rooms came with a microwave and refrigerator along with the standard coffee maker. The breakfast was awesome from cereal to eggs, pancakes to bacon and ham. The ladies that keep the breakfast going made sure nothing ran out and all the tables and counters were clean. The area is very convenient for shopping and local dining. All this and being only 15 min. to the French Quarters.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r149107364-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>149107364</t>
+  </si>
+  <si>
+    <t>01/07/2013</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel for a couple of days in January, 2013.  I must say it was very clean and the staff was very friendly and accomodating.  One young man working the front desk-night shift, was absolutely outstanding.  I only wish I could remember his name.  Definitely an asset to the company and this hotel.  We slept very well, but the pillows were very flat and no shuttle service was offered from the hotel.  The hotel is away from the action, but we enjoyed the peacefulness while the french quarter was only 10 minutes away.  I would recommend this hotel for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded January 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2013</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel for a couple of days in January, 2013.  I must say it was very clean and the staff was very friendly and accomodating.  One young man working the front desk-night shift, was absolutely outstanding.  I only wish I could remember his name.  Definitely an asset to the company and this hotel.  We slept very well, but the pillows were very flat and no shuttle service was offered from the hotel.  The hotel is away from the action, but we enjoyed the peacefulness while the french quarter was only 10 minutes away.  I would recommend this hotel for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r145009136-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>145009136</t>
+  </si>
+  <si>
+    <t>11/09/2012</t>
+  </si>
+  <si>
+    <t>Great area to stay</t>
+  </si>
+  <si>
+    <t>This has been a great experience for me. it is out of new orleans traffic down in western bank in Harvey. Great location, very good customer service. Want to thanks Lisa Clofer for all her team they have made me feel great in this hotel. specially our Federal employee who likes to be in a peaceful place to rest and not worry. Breakfast has been great. and they have open it early for those that leave early to work and have it open from 5.ooam to 10.ooam. Miguel Flores 110MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded November 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2012</t>
+  </si>
+  <si>
+    <t>This has been a great experience for me. it is out of new orleans traffic down in western bank in Harvey. Great location, very good customer service. Want to thanks Lisa Clofer for all her team they have made me feel great in this hotel. specially our Federal employee who likes to be in a peaceful place to rest and not worry. Breakfast has been great. and they have open it early for those that leave early to work and have it open from 5.ooam to 10.ooam. Miguel Flores 110More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r143237655-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>143237655</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>Surprisingly nice stay</t>
+  </si>
+  <si>
+    <t>I stayed here and was pleasantly surprised at how much I liked it. Staff was great to work with and the rooms were impeccably cleaned. Couldn't have asked for a cleaner room. That's a biggie for me. Nice room all the amenities and pretty quiet. Would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded November 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here and was pleasantly surprised at how much I liked it. Staff was great to work with and the rooms were impeccably cleaned. Couldn't have asked for a cleaner room. That's a biggie for me. Nice room all the amenities and pretty quiet. Would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r143143908-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>143143908</t>
+  </si>
+  <si>
+    <t>10/18/2012</t>
+  </si>
+  <si>
+    <t>Lisa was amazing!</t>
+  </si>
+  <si>
+    <t>I booked a room here for a client of mine. Lisa was amazing. Extremely friendly, knowledgeable, and excellent customer service. She talked to me like an old friend. Couldn't have been more pleased to have someone like her taking care of my client.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a room here for a client of mine. Lisa was amazing. Extremely friendly, knowledgeable, and excellent customer service. She talked to me like an old friend. Couldn't have been more pleased to have someone like her taking care of my client.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r142894644-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>142894644</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>Smelly room wasn't worth the money</t>
+  </si>
+  <si>
+    <t>I stayed here for one night with my husband and baby because he was returning from a deployment and we live about 2 hours away. I agree with a previous reviewer that the air conditioner smelled awful, like mildew and the whole room felt damp. I didn't complain for two reasons: I was only staying for one night and I was completely exhausted, and the cleaning staff HAD to be aware of it, the smell was obvious. On the plus side, there was a refrigerator and microwave, free wi-fi, a very large bathroom (made things easier when giving the baby a bath), and a good selection at breakfast (which was free). The staff were all very friendly. One lady was nice enough to get me a high chair at breakfast. I just wish the room weren't so stinky and damp!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded October 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for one night with my husband and baby because he was returning from a deployment and we live about 2 hours away. I agree with a previous reviewer that the air conditioner smelled awful, like mildew and the whole room felt damp. I didn't complain for two reasons: I was only staying for one night and I was completely exhausted, and the cleaning staff HAD to be aware of it, the smell was obvious. On the plus side, there was a refrigerator and microwave, free wi-fi, a very large bathroom (made things easier when giving the baby a bath), and a good selection at breakfast (which was free). The staff were all very friendly. One lady was nice enough to get me a high chair at breakfast. I just wish the room weren't so stinky and damp!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r142681952-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>142681952</t>
+  </si>
+  <si>
+    <t>10/12/2012</t>
+  </si>
+  <si>
+    <t>Smelly but large room</t>
+  </si>
+  <si>
+    <t>The air conditioner/heater when running just made this pretty nice hotel room smell terrible. If you left it off the smell got a bit better but was so uncomfortable you had to use it. A shame because the room itself was very nice and the breakfast was free and pretty good with eggs, bacon, yogurt, juice, etc. My co-workers room smelled the same way. For the price we paid, it was really bad. The people were friendly that worked there so it wasnt all bad but VERY difficult to sleep with the odor.MoreShow less</t>
+  </si>
+  <si>
+    <t>The air conditioner/heater when running just made this pretty nice hotel room smell terrible. If you left it off the smell got a bit better but was so uncomfortable you had to use it. A shame because the room itself was very nice and the breakfast was free and pretty good with eggs, bacon, yogurt, juice, etc. My co-workers room smelled the same way. For the price we paid, it was really bad. The people were friendly that worked there so it wasnt all bad but VERY difficult to sleep with the odor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r137923966-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>137923966</t>
+  </si>
+  <si>
+    <t>08/21/2012</t>
+  </si>
+  <si>
+    <t>Treated like family!</t>
+  </si>
+  <si>
+    <t>Me and my boyfriend stay there alot and I must admit the staff treat us like family everytime. Our rooms are always ready when we get there. Special thanks to Kevin at front desk. He's always there smiling everytime we stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded October 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2012</t>
+  </si>
+  <si>
+    <t>Me and my boyfriend stay there alot and I must admit the staff treat us like family everytime. Our rooms are always ready when we get there. Special thanks to Kevin at front desk. He's always there smiling everytime we stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r136340446-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>136340446</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>Great hotel, welcoming and receptive.</t>
+  </si>
+  <si>
+    <t>Enjoyed staying here, rooms were clean as was the rest of the hotel. Pool was very clean and enjoyable. Friendly hotel staff. Only down side, not many places to eat within walking distance. Next time we come to visit this area, you can be sure to find us at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded August 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2012</t>
+  </si>
+  <si>
+    <t>Enjoyed staying here, rooms were clean as was the rest of the hotel. Pool was very clean and enjoyable. Friendly hotel staff. Only down side, not many places to eat within walking distance. Next time we come to visit this area, you can be sure to find us at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r128185610-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>128185610</t>
+  </si>
+  <si>
+    <t>04/19/2012</t>
+  </si>
+  <si>
+    <t>Stayed here during Final Four</t>
+  </si>
+  <si>
+    <t>We stayed here during the NCAA Final Four.  It was a 15 minute drive to the Superdome.  The staff was extemely courteous.  The rooms were clean.  This was the nicest Holiday Inn Express that I have stayed in.  It's definitely a great place that is easily accessible to French Quarter and SuperDome.  Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded May 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2012</t>
+  </si>
+  <si>
+    <t>We stayed here during the NCAA Final Four.  It was a 15 minute drive to the Superdome.  The staff was extemely courteous.  The rooms were clean.  This was the nicest Holiday Inn Express that I have stayed in.  It's definitely a great place that is easily accessible to French Quarter and SuperDome.  Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r127976580-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>127976580</t>
+  </si>
+  <si>
+    <t>04/16/2012</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>Overall the room stay staff and that pancake making machine was great hats off to holiday inn my only two problems were cost i arrived overnight on weekend and rate was 99 i extended my stay into weekday and cost was 135 no one told me that but i got over it also make sure u have someone walk u through to your room to inspect it because evidently they will add charges to your credit card without telling you i am still fighting this one due to stains left on carpet or things out of place when. U check out if that is the case they need to have someone inspect before and after you leave only right thing to doMoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded April 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2012</t>
+  </si>
+  <si>
+    <t>Overall the room stay staff and that pancake making machine was great hats off to holiday inn my only two problems were cost i arrived overnight on weekend and rate was 99 i extended my stay into weekday and cost was 135 no one told me that but i got over it also make sure u have someone walk u through to your room to inspect it because evidently they will add charges to your credit card without telling you i am still fighting this one due to stains left on carpet or things out of place when. U check out if that is the case they need to have someone inspect before and after you leave only right thing to doMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r125263278-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>125263278</t>
+  </si>
+  <si>
+    <t>02/26/2012</t>
+  </si>
+  <si>
+    <t>Best Place in Harvey</t>
+  </si>
+  <si>
+    <t>This is the cleanest Holiday Inn I have stayed at. All the staff are really, really polite and work extremely hard. They love to speak to all their guests and want to make sure we are all comfortable. My wife and I stayed 16 nights on our first trip and will be staying for another couple of weeks againMoreShow less</t>
+  </si>
+  <si>
+    <t>This is the cleanest Holiday Inn I have stayed at. All the staff are really, really polite and work extremely hard. They love to speak to all their guests and want to make sure we are all comfortable. My wife and I stayed 16 nights on our first trip and will be staying for another couple of weeks againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r125075890-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>125075890</t>
+  </si>
+  <si>
+    <t>02/23/2012</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>Stayed here over Mardi Gras and thought it was great. At first glance, I was dismayed but my sister piped up saying it was just the dilapitating building in front. Sure enough! My room was very pleasant and comfy. Staff was also great. We'd driven for 16 hours and came by the hotel requesting early check in. I was even expecting it not to have been so clean with them getting it ready so quickly, but it was pretty spotless. There were several times I feel staff went above and beyond for us. I never felt unsafe but then again I'm from a small city with just as much of a crime rate. I know better than to wander around after dark...MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Director of Sales at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded February 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here over Mardi Gras and thought it was great. At first glance, I was dismayed but my sister piped up saying it was just the dilapitating building in front. Sure enough! My room was very pleasant and comfy. Staff was also great. We'd driven for 16 hours and came by the hotel requesting early check in. I was even expecting it not to have been so clean with them getting it ready so quickly, but it was pretty spotless. There were several times I feel staff went above and beyond for us. I never felt unsafe but then again I'm from a small city with just as much of a crime rate. I know better than to wander around after dark...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r124802616-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>124802616</t>
+  </si>
+  <si>
+    <t>02/19/2012</t>
+  </si>
+  <si>
+    <t>Very Comfortable</t>
+  </si>
+  <si>
+    <t>Very clean hotel and people are very friendly. My kids love the breakfast. The lady who help with breakfast is very kind and she knows how to get the grits hot. The beds are very comfortable and your located around everything if you know your way New Orleans.  The wireless internet, was fantastic!  The price was great. I truly thank God for this hotel. P.S.  I love the Mouth Wash. Marlene ThomasCapstone Classical AcademyMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Very clean hotel and people are very friendly. My kids love the breakfast. The lady who help with breakfast is very kind and she knows how to get the grits hot. The beds are very comfortable and your located around everything if you know your way New Orleans.  The wireless internet, was fantastic!  The price was great. I truly thank God for this hotel. P.S.  I love the Mouth Wash. Marlene ThomasCapstone Classical AcademyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r119736166-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>119736166</t>
+  </si>
+  <si>
+    <t>10/25/2011</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>This was the most uncomfortable BED where I've ever/never slept.  BUT....The breakfast area where Ms. Rena worked, she was the most pleasant employee I spoke to all weekend.  Not to say that others were NOT helpful, but some people stick in your mind.  Thank you Ms. Rena for NOT having my entire weekend ruined.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>This was the most uncomfortable BED where I've ever/never slept.  BUT....The breakfast area where Ms. Rena worked, she was the most pleasant employee I spoke to all weekend.  Not to say that others were NOT helpful, but some people stick in your mind.  Thank you Ms. Rena for NOT having my entire weekend ruined.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r116441573-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>116441573</t>
+  </si>
+  <si>
+    <t>08/08/2011</t>
+  </si>
+  <si>
+    <t>Wouldn't Stay There If It Was Free</t>
+  </si>
+  <si>
+    <t>All of the rooms are the exact same square footage despite what the dishonest employees of HIE-Harvey tell you; so if you are expecting to enjoy extra space in a "suite" be prepared to be disappointed. Appliances may stop working in your roomYou can expect "Contact High" in some of their rooms due to their relaxed policies &amp; poor management of the property.All of the rooms do not have up-to-date appliances &amp; furniture, so if you stay on one side of the hotel you'll have new-styled furniture if  you they put you on the other end of the hall you'll have old-styled furniture.The Car Port is bigger than the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>hiexpressharvey99, Manager at Holiday Inn Express Harvey - Marrero, responded to this reviewResponded August 19, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2011</t>
+  </si>
+  <si>
+    <t>All of the rooms are the exact same square footage despite what the dishonest employees of HIE-Harvey tell you; so if you are expecting to enjoy extra space in a "suite" be prepared to be disappointed. Appliances may stop working in your roomYou can expect "Contact High" in some of their rooms due to their relaxed policies &amp; poor management of the property.All of the rooms do not have up-to-date appliances &amp; furniture, so if you stay on one side of the hotel you'll have new-styled furniture if  you they put you on the other end of the hall you'll have old-styled furniture.The Car Port is bigger than the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r46969784-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>46969784</t>
+  </si>
+  <si>
+    <t>10/15/2009</t>
+  </si>
+  <si>
+    <t>Very clean hotel, Bad Neighborhood</t>
+  </si>
+  <si>
+    <t>The hotel, staff, breakfast, wireless internet, were fantastic!  It is in a bad part of town with a high rate of crime, I probably won't stay here again because of that.  It is right be a slummy looking housing area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>The hotel, staff, breakfast, wireless internet, were fantastic!  It is in a bad part of town with a high rate of crime, I probably won't stay here again because of that.  It is right be a slummy looking housing area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r3680595-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>3680595</t>
+  </si>
+  <si>
+    <t>07/17/2005</t>
+  </si>
+  <si>
+    <t>Very Happy</t>
+  </si>
+  <si>
+    <t>This Hotel was immaculate. We had booked it from home over the phone.Of the hotels we stayed at during our holiday; five in total, this one had the best breakfast. The staff were very helpful. We stayed there 3rd &amp; 4th July.It is located ideally, about 10mins drive from N.O. French Quarter over the double bridges. $1.00 toll on the way into N.O.The hotel had a P.C. with internet access near the foyer that I found helpful. It is for meant for Business use only. Hope this assists others travelling to N.O.MoreShow less</t>
+  </si>
+  <si>
+    <t>This Hotel was immaculate. We had booked it from home over the phone.Of the hotels we stayed at during our holiday; five in total, this one had the best breakfast. The staff were very helpful. We stayed there 3rd &amp; 4th July.It is located ideally, about 10mins drive from N.O. French Quarter over the double bridges. $1.00 toll on the way into N.O.The hotel had a P.C. with internet access near the foyer that I found helpful. It is for meant for Business use only. Hope this assists others travelling to N.O.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r3646293-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>3646293</t>
+  </si>
+  <si>
+    <t>07/06/2005</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t>This hotel was clean, the employees were friendly and helpful, and the continental breakfast was above average. Although, as someone mentioned, it is across the river from New Orleans, and the neighborhood is on the lower end of the economic scale, at no time did I feel threatened or scared. There is a dollar toll to go into New Orleans, which should be advertised on the hotels website, and with traffic, the drive can be 10-15 min, but the hotel itself was great. The only reason I would stay closer to the city would be to avoid driving. As for safety, I don't think Harvey has a lock on crime in the area. Downtown New Orleans (French Quarter, Garden District) was pretty rough around the edges also. But I still had a great time.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was clean, the employees were friendly and helpful, and the continental breakfast was above average. Although, as someone mentioned, it is across the river from New Orleans, and the neighborhood is on the lower end of the economic scale, at no time did I feel threatened or scared. There is a dollar toll to go into New Orleans, which should be advertised on the hotels website, and with traffic, the drive can be 10-15 min, but the hotel itself was great. The only reason I would stay closer to the city would be to avoid driving. As for safety, I don't think Harvey has a lock on crime in the area. Downtown New Orleans (French Quarter, Garden District) was pretty rough around the edges also. But I still had a great time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r3346489-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>3346489</t>
+  </si>
+  <si>
+    <t>04/08/2005</t>
+  </si>
+  <si>
+    <t>If you don't mind staying right next to the projects, this is you're place</t>
+  </si>
+  <si>
+    <t>Pros:  Staff was top notch, room was very clean(and I am very picky when it comes to cleanliness), good restaurants nearby,  and I felt mostly safe when inside the hotel.  Cons:  There was a large slum adjacent to the hotel.  It might have been just a trashy neighborhood, but if I had to guess it was a housing project.I would have gladly sucked it up and spent the additonal $30-$40/night for a hotel in a better part of town if I had known better.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r3000852-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>3000852</t>
+  </si>
+  <si>
+    <t>01/10/2005</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at the Holiday Inn Express from Dec. 23-26, 2004 and was very pleased.  The hotel staff were exceptionally pleasant and helpful.  My room was large and and the beds were comfortable.  The bathroom was large, well lighted and had a great shower head.  Everything was clean and in great condition.  The room was quiet which was very much appreciated. The hotel offers a decent continental breakfast buffet.  The hotel is located in a busy commercial area and there are restaurants, shopping and a movie theatre nearby.  The hotel is located on the "Westbank" side of the Missisippi River.  Most of the hotels on the Westbank are old and in poor condition.  The Holiday Inn Express is clearly heads and shoulders above the rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the Holiday Inn Express from Dec. 23-26, 2004 and was very pleased.  The hotel staff were exceptionally pleasant and helpful.  My room was large and and the beds were comfortable.  The bathroom was large, well lighted and had a great shower head.  Everything was clean and in great condition.  The room was quiet which was very much appreciated. The hotel offers a decent continental breakfast buffet.  The hotel is located in a busy commercial area and there are restaurants, shopping and a movie theatre nearby.  The hotel is located on the "Westbank" side of the Missisippi River.  Most of the hotels on the Westbank are old and in poor condition.  The Holiday Inn Express is clearly heads and shoulders above the rest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d275216-r2061804-Holiday_Inn_Express_Harvey_Marrero-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>2061804</t>
+  </si>
+  <si>
+    <t>05/14/2004</t>
+  </si>
+  <si>
+    <t>The Best Hotel On The Outskirts of New Orleans</t>
+  </si>
+  <si>
+    <t>This is the cleanest hotel I have ever seen. The decor is modern and tasteful, it is a very new property in a safe location, and the rooms have microwaves and refrigerators. We arrived at 11 A.M. on April 23 after driving for more than twenty hours. We had originally booked the Best Western on the promise of being checked in upon arrival, but were treated rudely. We went across the street to this property and were immediately checked in. The price was outstanding. It was under $90 on the weekend when Jazzfest was being held. It was well worth it. Stay here to avoid the valet costs in the city. Everyone in the staff from maintenance to housekeeping was very friendly and helpful. I will recommend this hotel to anyone coming to visit me when I move to New Orleans.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the cleanest hotel I have ever seen. The decor is modern and tasteful, it is a very new property in a safe location, and the rooms have microwaves and refrigerators. We arrived at 11 A.M. on April 23 after driving for more than twenty hours. We had originally booked the Best Western on the promise of being checked in upon arrival, but were treated rudely. We went across the street to this property and were immediately checked in. The price was outstanding. It was under $90 on the weekend when Jazzfest was being held. It was well worth it. Stay here to avoid the valet costs in the city. Everyone in the staff from maintenance to housekeeping was very friendly and helpful. I will recommend this hotel to anyone coming to visit me when I move to New Orleans.More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -561,6 +2953,6633 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>64</v>
+      </c>
+      <c r="X7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>95</v>
+      </c>
+      <c r="X10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>104</v>
+      </c>
+      <c r="X11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>113</v>
+      </c>
+      <c r="X12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>122</v>
+      </c>
+      <c r="X13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>131</v>
+      </c>
+      <c r="X14" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>140</v>
+      </c>
+      <c r="X15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>148</v>
+      </c>
+      <c r="X17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>163</v>
+      </c>
+      <c r="X18" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>172</v>
+      </c>
+      <c r="X19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" t="s">
+        <v>179</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>180</v>
+      </c>
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>181</v>
+      </c>
+      <c r="X20" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s">
+        <v>188</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>189</v>
+      </c>
+      <c r="X21" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>197</v>
+      </c>
+      <c r="X22" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" t="s">
+        <v>206</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>216</v>
+      </c>
+      <c r="X24" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>224</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>216</v>
+      </c>
+      <c r="X25" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>224</v>
+      </c>
+      <c r="O26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" t="s">
+        <v>234</v>
+      </c>
+      <c r="L27" t="s">
+        <v>235</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>224</v>
+      </c>
+      <c r="O27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>236</v>
+      </c>
+      <c r="X27" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>240</v>
+      </c>
+      <c r="J28" t="s">
+        <v>241</v>
+      </c>
+      <c r="K28" t="s">
+        <v>242</v>
+      </c>
+      <c r="L28" t="s">
+        <v>243</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>244</v>
+      </c>
+      <c r="O28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>245</v>
+      </c>
+      <c r="X28" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>253</v>
+      </c>
+      <c r="O29" t="s">
+        <v>206</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>254</v>
+      </c>
+      <c r="X29" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>262</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>263</v>
+      </c>
+      <c r="X30" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>83</v>
+      </c>
+      <c r="L31" t="s">
+        <v>269</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>253</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>263</v>
+      </c>
+      <c r="X31" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
+        <v>268</v>
+      </c>
+      <c r="K32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>253</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>263</v>
+      </c>
+      <c r="X32" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>278</v>
+      </c>
+      <c r="K33" t="s">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s">
+        <v>280</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>253</v>
+      </c>
+      <c r="O33" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>281</v>
+      </c>
+      <c r="X33" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>285</v>
+      </c>
+      <c r="J34" t="s">
+        <v>286</v>
+      </c>
+      <c r="K34" t="s">
+        <v>287</v>
+      </c>
+      <c r="L34" t="s">
+        <v>288</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>253</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>281</v>
+      </c>
+      <c r="X34" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>291</v>
+      </c>
+      <c r="J35" t="s">
+        <v>286</v>
+      </c>
+      <c r="K35" t="s">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>253</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>281</v>
+      </c>
+      <c r="X35" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>295</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>296</v>
+      </c>
+      <c r="J36" t="s">
+        <v>297</v>
+      </c>
+      <c r="K36" t="s">
+        <v>298</v>
+      </c>
+      <c r="L36" t="s">
+        <v>299</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>300</v>
+      </c>
+      <c r="O36" t="s">
+        <v>41</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>301</v>
+      </c>
+      <c r="X36" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>305</v>
+      </c>
+      <c r="J37" t="s">
+        <v>306</v>
+      </c>
+      <c r="K37" t="s">
+        <v>307</v>
+      </c>
+      <c r="L37" t="s">
+        <v>308</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>300</v>
+      </c>
+      <c r="O37" t="s">
+        <v>41</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>309</v>
+      </c>
+      <c r="X37" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>312</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>313</v>
+      </c>
+      <c r="J38" t="s">
+        <v>314</v>
+      </c>
+      <c r="K38" t="s">
+        <v>315</v>
+      </c>
+      <c r="L38" t="s">
+        <v>316</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>317</v>
+      </c>
+      <c r="O38" t="s">
+        <v>56</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>319</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>320</v>
+      </c>
+      <c r="J39" t="s">
+        <v>321</v>
+      </c>
+      <c r="K39" t="s">
+        <v>322</v>
+      </c>
+      <c r="L39" t="s">
+        <v>323</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>324</v>
+      </c>
+      <c r="O39" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>325</v>
+      </c>
+      <c r="X39" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>328</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>329</v>
+      </c>
+      <c r="J40" t="s">
+        <v>330</v>
+      </c>
+      <c r="K40" t="s">
+        <v>331</v>
+      </c>
+      <c r="L40" t="s">
+        <v>332</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>262</v>
+      </c>
+      <c r="O40" t="s">
+        <v>41</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>333</v>
+      </c>
+      <c r="X40" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>336</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>337</v>
+      </c>
+      <c r="J41" t="s">
+        <v>338</v>
+      </c>
+      <c r="K41" t="s">
+        <v>339</v>
+      </c>
+      <c r="L41" t="s">
+        <v>340</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>262</v>
+      </c>
+      <c r="O41" t="s">
+        <v>56</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>341</v>
+      </c>
+      <c r="X41" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>344</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>345</v>
+      </c>
+      <c r="J42" t="s">
+        <v>346</v>
+      </c>
+      <c r="K42" t="s">
+        <v>347</v>
+      </c>
+      <c r="L42" t="s">
+        <v>348</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>349</v>
+      </c>
+      <c r="O42" t="s">
+        <v>41</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>350</v>
+      </c>
+      <c r="X42" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>353</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>354</v>
+      </c>
+      <c r="J43" t="s">
+        <v>355</v>
+      </c>
+      <c r="K43" t="s">
+        <v>356</v>
+      </c>
+      <c r="L43" t="s">
+        <v>357</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>324</v>
+      </c>
+      <c r="O43" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>358</v>
+      </c>
+      <c r="X43" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>361</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>362</v>
+      </c>
+      <c r="J44" t="s">
+        <v>363</v>
+      </c>
+      <c r="K44" t="s">
+        <v>364</v>
+      </c>
+      <c r="L44" t="s">
+        <v>365</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>324</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>358</v>
+      </c>
+      <c r="X44" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>367</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>368</v>
+      </c>
+      <c r="J45" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" t="s">
+        <v>370</v>
+      </c>
+      <c r="L45" t="s">
+        <v>371</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>372</v>
+      </c>
+      <c r="O45" t="s">
+        <v>41</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>373</v>
+      </c>
+      <c r="X45" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>376</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>377</v>
+      </c>
+      <c r="J46" t="s">
+        <v>378</v>
+      </c>
+      <c r="K46" t="s">
+        <v>379</v>
+      </c>
+      <c r="L46" t="s">
+        <v>380</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>381</v>
+      </c>
+      <c r="O46" t="s">
+        <v>206</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>382</v>
+      </c>
+      <c r="X46" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>385</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>386</v>
+      </c>
+      <c r="J47" t="s">
+        <v>387</v>
+      </c>
+      <c r="K47" t="s">
+        <v>388</v>
+      </c>
+      <c r="L47" t="s">
+        <v>389</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>372</v>
+      </c>
+      <c r="O47" t="s">
+        <v>41</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>390</v>
+      </c>
+      <c r="X47" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>393</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>394</v>
+      </c>
+      <c r="J48" t="s">
+        <v>395</v>
+      </c>
+      <c r="K48" t="s">
+        <v>396</v>
+      </c>
+      <c r="L48" t="s">
+        <v>397</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>372</v>
+      </c>
+      <c r="O48" t="s">
+        <v>34</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>398</v>
+      </c>
+      <c r="X48" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>401</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>402</v>
+      </c>
+      <c r="J49" t="s">
+        <v>403</v>
+      </c>
+      <c r="K49" t="s">
+        <v>404</v>
+      </c>
+      <c r="L49" t="s">
+        <v>405</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>372</v>
+      </c>
+      <c r="O49" t="s">
+        <v>56</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>398</v>
+      </c>
+      <c r="X49" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>407</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>408</v>
+      </c>
+      <c r="J50" t="s">
+        <v>409</v>
+      </c>
+      <c r="K50" t="s">
+        <v>410</v>
+      </c>
+      <c r="L50" t="s">
+        <v>411</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>372</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>398</v>
+      </c>
+      <c r="X50" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>413</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>414</v>
+      </c>
+      <c r="J51" t="s">
+        <v>415</v>
+      </c>
+      <c r="K51" t="s">
+        <v>416</v>
+      </c>
+      <c r="L51" t="s">
+        <v>417</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>372</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>418</v>
+      </c>
+      <c r="X51" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>421</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>422</v>
+      </c>
+      <c r="J52" t="s">
+        <v>423</v>
+      </c>
+      <c r="K52" t="s">
+        <v>424</v>
+      </c>
+      <c r="L52" t="s">
+        <v>425</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>372</v>
+      </c>
+      <c r="O52" t="s">
+        <v>41</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>426</v>
+      </c>
+      <c r="X52" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>429</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>430</v>
+      </c>
+      <c r="J53" t="s">
+        <v>431</v>
+      </c>
+      <c r="K53" t="s">
+        <v>432</v>
+      </c>
+      <c r="L53" t="s">
+        <v>433</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>434</v>
+      </c>
+      <c r="O53" t="s">
+        <v>56</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>435</v>
+      </c>
+      <c r="X53" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>438</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>439</v>
+      </c>
+      <c r="J54" t="s">
+        <v>440</v>
+      </c>
+      <c r="K54" t="s">
+        <v>441</v>
+      </c>
+      <c r="L54" t="s">
+        <v>442</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>434</v>
+      </c>
+      <c r="O54" t="s">
+        <v>41</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>435</v>
+      </c>
+      <c r="X54" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>444</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>445</v>
+      </c>
+      <c r="J55" t="s">
+        <v>446</v>
+      </c>
+      <c r="K55" t="s">
+        <v>447</v>
+      </c>
+      <c r="L55" t="s">
+        <v>448</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>449</v>
+      </c>
+      <c r="O55" t="s">
+        <v>56</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>450</v>
+      </c>
+      <c r="X55" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>453</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>454</v>
+      </c>
+      <c r="J56" t="s">
+        <v>455</v>
+      </c>
+      <c r="K56" t="s">
+        <v>456</v>
+      </c>
+      <c r="L56" t="s">
+        <v>457</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>450</v>
+      </c>
+      <c r="X56" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>459</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>460</v>
+      </c>
+      <c r="J57" t="s">
+        <v>461</v>
+      </c>
+      <c r="K57" t="s">
+        <v>462</v>
+      </c>
+      <c r="L57" t="s">
+        <v>463</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>464</v>
+      </c>
+      <c r="O57" t="s">
+        <v>56</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>465</v>
+      </c>
+      <c r="X57" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>468</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>469</v>
+      </c>
+      <c r="J58" t="s">
+        <v>470</v>
+      </c>
+      <c r="K58" t="s">
+        <v>471</v>
+      </c>
+      <c r="L58" t="s">
+        <v>472</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>473</v>
+      </c>
+      <c r="O58" t="s">
+        <v>56</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>474</v>
+      </c>
+      <c r="X58" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>477</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>478</v>
+      </c>
+      <c r="J59" t="s">
+        <v>479</v>
+      </c>
+      <c r="K59" t="s">
+        <v>480</v>
+      </c>
+      <c r="L59" t="s">
+        <v>481</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>482</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>483</v>
+      </c>
+      <c r="X59" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>486</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>487</v>
+      </c>
+      <c r="J60" t="s">
+        <v>488</v>
+      </c>
+      <c r="K60" t="s">
+        <v>489</v>
+      </c>
+      <c r="L60" t="s">
+        <v>490</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>482</v>
+      </c>
+      <c r="O60" t="s">
+        <v>56</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>491</v>
+      </c>
+      <c r="X60" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>494</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" t="s">
+        <v>495</v>
+      </c>
+      <c r="J61" t="s">
+        <v>496</v>
+      </c>
+      <c r="K61" t="s">
+        <v>497</v>
+      </c>
+      <c r="L61" t="s">
+        <v>498</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>499</v>
+      </c>
+      <c r="O61" t="s">
+        <v>206</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>500</v>
+      </c>
+      <c r="X61" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>503</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>504</v>
+      </c>
+      <c r="J62" t="s">
+        <v>505</v>
+      </c>
+      <c r="K62" t="s">
+        <v>506</v>
+      </c>
+      <c r="L62" t="s">
+        <v>507</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>500</v>
+      </c>
+      <c r="X62" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>509</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>510</v>
+      </c>
+      <c r="J63" t="s">
+        <v>511</v>
+      </c>
+      <c r="K63" t="s">
+        <v>512</v>
+      </c>
+      <c r="L63" t="s">
+        <v>513</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>514</v>
+      </c>
+      <c r="O63" t="s">
+        <v>41</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>500</v>
+      </c>
+      <c r="X63" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>516</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s">
+        <v>517</v>
+      </c>
+      <c r="J64" t="s">
+        <v>518</v>
+      </c>
+      <c r="K64" t="s">
+        <v>519</v>
+      </c>
+      <c r="L64" t="s">
+        <v>520</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>514</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>521</v>
+      </c>
+      <c r="X64" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>524</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" t="s">
+        <v>525</v>
+      </c>
+      <c r="J65" t="s">
+        <v>526</v>
+      </c>
+      <c r="K65" t="s">
+        <v>519</v>
+      </c>
+      <c r="L65" t="s">
+        <v>527</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>528</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>529</v>
+      </c>
+      <c r="X65" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>532</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s">
+        <v>533</v>
+      </c>
+      <c r="J66" t="s">
+        <v>526</v>
+      </c>
+      <c r="K66" t="s">
+        <v>534</v>
+      </c>
+      <c r="L66" t="s">
+        <v>535</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>528</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>536</v>
+      </c>
+      <c r="X66" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>538</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s">
+        <v>539</v>
+      </c>
+      <c r="J67" t="s">
+        <v>540</v>
+      </c>
+      <c r="K67" t="s">
+        <v>541</v>
+      </c>
+      <c r="L67" t="s">
+        <v>542</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>543</v>
+      </c>
+      <c r="O67" t="s">
+        <v>41</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>544</v>
+      </c>
+      <c r="X67" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>547</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s">
+        <v>548</v>
+      </c>
+      <c r="J68" t="s">
+        <v>549</v>
+      </c>
+      <c r="K68" t="s">
+        <v>550</v>
+      </c>
+      <c r="L68" t="s">
+        <v>551</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>543</v>
+      </c>
+      <c r="O68" t="s">
+        <v>56</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>552</v>
+      </c>
+      <c r="X68" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>555</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>556</v>
+      </c>
+      <c r="J69" t="s">
+        <v>557</v>
+      </c>
+      <c r="K69" t="s">
+        <v>558</v>
+      </c>
+      <c r="L69" t="s">
+        <v>559</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>560</v>
+      </c>
+      <c r="X69" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>563</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s">
+        <v>564</v>
+      </c>
+      <c r="J70" t="s">
+        <v>565</v>
+      </c>
+      <c r="K70" t="s">
+        <v>566</v>
+      </c>
+      <c r="L70" t="s">
+        <v>567</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>568</v>
+      </c>
+      <c r="O70" t="s">
+        <v>56</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>569</v>
+      </c>
+      <c r="X70" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>572</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>573</v>
+      </c>
+      <c r="J71" t="s">
+        <v>574</v>
+      </c>
+      <c r="K71" t="s">
+        <v>575</v>
+      </c>
+      <c r="L71" t="s">
+        <v>576</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>577</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>578</v>
+      </c>
+      <c r="X71" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>581</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>582</v>
+      </c>
+      <c r="J72" t="s">
+        <v>583</v>
+      </c>
+      <c r="K72" t="s">
+        <v>584</v>
+      </c>
+      <c r="L72" t="s">
+        <v>585</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>577</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>586</v>
+      </c>
+      <c r="X72" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>589</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>590</v>
+      </c>
+      <c r="J73" t="s">
+        <v>591</v>
+      </c>
+      <c r="K73" t="s">
+        <v>592</v>
+      </c>
+      <c r="L73" t="s">
+        <v>593</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>594</v>
+      </c>
+      <c r="O73" t="s">
+        <v>41</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>578</v>
+      </c>
+      <c r="X73" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>596</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>597</v>
+      </c>
+      <c r="J74" t="s">
+        <v>598</v>
+      </c>
+      <c r="K74" t="s">
+        <v>599</v>
+      </c>
+      <c r="L74" t="s">
+        <v>600</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>594</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>601</v>
+      </c>
+      <c r="X74" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>604</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>605</v>
+      </c>
+      <c r="J75" t="s">
+        <v>606</v>
+      </c>
+      <c r="K75" t="s">
+        <v>607</v>
+      </c>
+      <c r="L75" t="s">
+        <v>608</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>609</v>
+      </c>
+      <c r="O75" t="s">
+        <v>206</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>601</v>
+      </c>
+      <c r="X75" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>611</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>612</v>
+      </c>
+      <c r="J76" t="s">
+        <v>613</v>
+      </c>
+      <c r="K76" t="s">
+        <v>614</v>
+      </c>
+      <c r="L76" t="s">
+        <v>615</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>616</v>
+      </c>
+      <c r="O76" t="s">
+        <v>206</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>617</v>
+      </c>
+      <c r="X76" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>620</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s">
+        <v>621</v>
+      </c>
+      <c r="J77" t="s">
+        <v>622</v>
+      </c>
+      <c r="K77" t="s">
+        <v>623</v>
+      </c>
+      <c r="L77" t="s">
+        <v>624</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>625</v>
+      </c>
+      <c r="O77" t="s">
+        <v>63</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>626</v>
+      </c>
+      <c r="X77" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>629</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s">
+        <v>630</v>
+      </c>
+      <c r="J78" t="s">
+        <v>631</v>
+      </c>
+      <c r="K78" t="s">
+        <v>632</v>
+      </c>
+      <c r="L78" t="s">
+        <v>633</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>634</v>
+      </c>
+      <c r="O78" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>635</v>
+      </c>
+      <c r="X78" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>638</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s">
+        <v>639</v>
+      </c>
+      <c r="J79" t="s">
+        <v>640</v>
+      </c>
+      <c r="K79" t="s">
+        <v>641</v>
+      </c>
+      <c r="L79" t="s">
+        <v>642</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>643</v>
+      </c>
+      <c r="O79" t="s">
+        <v>41</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>644</v>
+      </c>
+      <c r="X79" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>647</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>648</v>
+      </c>
+      <c r="J80" t="s">
+        <v>649</v>
+      </c>
+      <c r="K80" t="s">
+        <v>641</v>
+      </c>
+      <c r="L80" t="s">
+        <v>650</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>651</v>
+      </c>
+      <c r="O80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>652</v>
+      </c>
+      <c r="X80" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>655</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s">
+        <v>656</v>
+      </c>
+      <c r="J81" t="s">
+        <v>657</v>
+      </c>
+      <c r="K81" t="s">
+        <v>658</v>
+      </c>
+      <c r="L81" t="s">
+        <v>659</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>651</v>
+      </c>
+      <c r="O81" t="s">
+        <v>41</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>660</v>
+      </c>
+      <c r="X81" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>663</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s">
+        <v>664</v>
+      </c>
+      <c r="J82" t="s">
+        <v>665</v>
+      </c>
+      <c r="K82" t="s">
+        <v>666</v>
+      </c>
+      <c r="L82" t="s">
+        <v>667</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>668</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>669</v>
+      </c>
+      <c r="X82" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>672</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s">
+        <v>673</v>
+      </c>
+      <c r="J83" t="s">
+        <v>674</v>
+      </c>
+      <c r="K83" t="s">
+        <v>675</v>
+      </c>
+      <c r="L83" t="s">
+        <v>676</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>677</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>678</v>
+      </c>
+      <c r="X83" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>681</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s">
+        <v>682</v>
+      </c>
+      <c r="J84" t="s">
+        <v>683</v>
+      </c>
+      <c r="K84" t="s">
+        <v>684</v>
+      </c>
+      <c r="L84" t="s">
+        <v>685</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>686</v>
+      </c>
+      <c r="X84" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>689</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s">
+        <v>690</v>
+      </c>
+      <c r="J85" t="s">
+        <v>691</v>
+      </c>
+      <c r="K85" t="s">
+        <v>692</v>
+      </c>
+      <c r="L85" t="s">
+        <v>693</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>677</v>
+      </c>
+      <c r="O85" t="s">
+        <v>63</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>686</v>
+      </c>
+      <c r="X85" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>695</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>696</v>
+      </c>
+      <c r="J86" t="s">
+        <v>697</v>
+      </c>
+      <c r="K86" t="s">
+        <v>698</v>
+      </c>
+      <c r="L86" t="s">
+        <v>699</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>677</v>
+      </c>
+      <c r="O86" t="s">
+        <v>41</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>700</v>
+      </c>
+      <c r="X86" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>703</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" t="s">
+        <v>704</v>
+      </c>
+      <c r="J87" t="s">
+        <v>705</v>
+      </c>
+      <c r="K87" t="s">
+        <v>706</v>
+      </c>
+      <c r="L87" t="s">
+        <v>707</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>677</v>
+      </c>
+      <c r="O87" t="s">
+        <v>63</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>686</v>
+      </c>
+      <c r="X87" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>709</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s">
+        <v>710</v>
+      </c>
+      <c r="J88" t="s">
+        <v>711</v>
+      </c>
+      <c r="K88" t="s">
+        <v>712</v>
+      </c>
+      <c r="L88" t="s">
+        <v>713</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>714</v>
+      </c>
+      <c r="X88" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>717</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s">
+        <v>718</v>
+      </c>
+      <c r="J89" t="s">
+        <v>719</v>
+      </c>
+      <c r="K89" t="s">
+        <v>720</v>
+      </c>
+      <c r="L89" t="s">
+        <v>721</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>722</v>
+      </c>
+      <c r="X89" t="s">
+        <v>723</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>725</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s">
+        <v>726</v>
+      </c>
+      <c r="J90" t="s">
+        <v>727</v>
+      </c>
+      <c r="K90" t="s">
+        <v>728</v>
+      </c>
+      <c r="L90" t="s">
+        <v>729</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>730</v>
+      </c>
+      <c r="O90" t="s">
+        <v>206</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>731</v>
+      </c>
+      <c r="X90" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>734</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" t="s">
+        <v>735</v>
+      </c>
+      <c r="J91" t="s">
+        <v>736</v>
+      </c>
+      <c r="K91" t="s">
+        <v>737</v>
+      </c>
+      <c r="L91" t="s">
+        <v>738</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>739</v>
+      </c>
+      <c r="X91" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" t="s">
+        <v>742</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" t="s">
+        <v>743</v>
+      </c>
+      <c r="J92" t="s">
+        <v>744</v>
+      </c>
+      <c r="K92" t="s">
+        <v>745</v>
+      </c>
+      <c r="L92" t="s">
+        <v>746</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>739</v>
+      </c>
+      <c r="X92" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>748</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" t="s">
+        <v>749</v>
+      </c>
+      <c r="J93" t="s">
+        <v>750</v>
+      </c>
+      <c r="K93" t="s">
+        <v>751</v>
+      </c>
+      <c r="L93" t="s">
+        <v>752</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>753</v>
+      </c>
+      <c r="X93" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" t="s">
+        <v>756</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" t="s">
+        <v>757</v>
+      </c>
+      <c r="J94" t="s">
+        <v>758</v>
+      </c>
+      <c r="K94" t="s">
+        <v>759</v>
+      </c>
+      <c r="L94" t="s">
+        <v>760</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>761</v>
+      </c>
+      <c r="O94" t="s">
+        <v>41</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>753</v>
+      </c>
+      <c r="X94" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" t="s">
+        <v>763</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s">
+        <v>764</v>
+      </c>
+      <c r="J95" t="s">
+        <v>765</v>
+      </c>
+      <c r="K95" t="s">
+        <v>766</v>
+      </c>
+      <c r="L95" t="s">
+        <v>767</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>768</v>
+      </c>
+      <c r="O95" t="s">
+        <v>41</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>753</v>
+      </c>
+      <c r="X95" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>770</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s">
+        <v>771</v>
+      </c>
+      <c r="J96" t="s">
+        <v>772</v>
+      </c>
+      <c r="K96" t="s">
+        <v>773</v>
+      </c>
+      <c r="L96" t="s">
+        <v>774</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s">
+        <v>775</v>
+      </c>
+      <c r="O96" t="s">
+        <v>41</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>776</v>
+      </c>
+      <c r="X96" t="s">
+        <v>777</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" t="s">
+        <v>779</v>
+      </c>
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" t="s">
+        <v>780</v>
+      </c>
+      <c r="J97" t="s">
+        <v>781</v>
+      </c>
+      <c r="K97" t="s">
+        <v>782</v>
+      </c>
+      <c r="L97" t="s">
+        <v>783</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>784</v>
+      </c>
+      <c r="O97" t="s">
+        <v>63</v>
+      </c>
+      <c r="P97" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>753</v>
+      </c>
+      <c r="X97" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" t="s">
+        <v>786</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" t="s">
+        <v>787</v>
+      </c>
+      <c r="J98" t="s">
+        <v>788</v>
+      </c>
+      <c r="K98" t="s">
+        <v>789</v>
+      </c>
+      <c r="L98" t="s">
+        <v>790</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>536</v>
+      </c>
+      <c r="X98" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>792</v>
+      </c>
+      <c r="G99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" t="s">
+        <v>793</v>
+      </c>
+      <c r="J99" t="s">
+        <v>794</v>
+      </c>
+      <c r="K99" t="s">
+        <v>795</v>
+      </c>
+      <c r="L99" t="s">
+        <v>796</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>536</v>
+      </c>
+      <c r="X99" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" t="s">
+        <v>798</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" t="s">
+        <v>799</v>
+      </c>
+      <c r="J100" t="s">
+        <v>800</v>
+      </c>
+      <c r="K100" t="s">
+        <v>801</v>
+      </c>
+      <c r="L100" t="s">
+        <v>802</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" t="s">
+        <v>803</v>
+      </c>
+      <c r="G101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" t="s">
+        <v>28</v>
+      </c>
+      <c r="I101" t="s">
+        <v>804</v>
+      </c>
+      <c r="J101" t="s">
+        <v>805</v>
+      </c>
+      <c r="K101" t="s">
+        <v>806</v>
+      </c>
+      <c r="L101" t="s">
+        <v>807</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>536</v>
+      </c>
+      <c r="X101" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>49075</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" t="s">
+        <v>809</v>
+      </c>
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" t="s">
+        <v>810</v>
+      </c>
+      <c r="J102" t="s">
+        <v>811</v>
+      </c>
+      <c r="K102" t="s">
+        <v>812</v>
+      </c>
+      <c r="L102" t="s">
+        <v>813</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="s"/>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>536</v>
+      </c>
+      <c r="X102" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>814</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -583,31 +9602,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>815</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>816</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>817</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>818</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>819</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>820</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>821</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>822</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2">
@@ -615,31 +9634,31 @@
         <v>49075</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>824</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>825</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>826</v>
       </c>
       <c r="E2" t="n">
         <v>70058</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>827</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>828</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>829</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>830</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
